--- a/documentos/Formato definicion poblado inicial de tablas de parametrizacion Aldebaran.xlsx
+++ b/documentos/Formato definicion poblado inicial de tablas de parametrizacion Aldebaran.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1935" windowWidth="14805" windowHeight="8010" tabRatio="801"/>
+    <workbookView xWindow="240" yWindow="2850" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Descripcion del Archivo" sheetId="32" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="171">
   <si>
     <t>*</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Combinado</t>
   </si>
   <si>
-    <t>Columna1</t>
-  </si>
-  <si>
     <t>Columna2</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>Correo Electrónico 1</t>
   </si>
   <si>
-    <t>Correo Electrónico 3</t>
-  </si>
-  <si>
     <t>Envio de Correo</t>
   </si>
   <si>
@@ -491,9 +485,6 @@
   </si>
   <si>
     <t>Correo Electrónico</t>
-  </si>
-  <si>
-    <t>Correo Electrónico 12</t>
   </si>
   <si>
     <t>Columna4</t>
@@ -708,7 +699,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -950,24 +941,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -979,9 +952,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1018,22 +988,56 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="213">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1068,6 +1072,13 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1104,6 +1115,37 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1128,102 +1170,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1232,884 +1178,41 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2136,6 +1239,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2143,18 +1252,31 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2163,6 +1285,61 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2189,6 +1366,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2196,6 +1376,36 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2203,6 +1413,45 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2210,6 +1459,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2217,6 +1499,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2224,25 +1539,69 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2275,11 +1634,278 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2302,6 +1928,12 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2315,6 +1947,12 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2322,6 +1960,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2329,6 +2000,42 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2336,6 +2043,42 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2343,6 +2086,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2350,6 +2126,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2357,6 +2166,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2364,6 +2206,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2371,6 +2246,39 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2378,6 +2286,54 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2385,6 +2341,36 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2392,32 +2378,31 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2433,39 +2418,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="A5:A6" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177" tableBorderDxfId="207">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="A5:A6" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211" tableBorderDxfId="210">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre de la actividad" dataDxfId="179"/>
+    <tableColumn id="1" name="Nombre de la actividad" dataDxfId="209"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla19" displayName="Tabla19" ref="A5:B6" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138" tableBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla19" displayName="Tabla19" ref="A5:B6" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164" tableBorderDxfId="163">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="141"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="140"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="162"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A5:B7" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134" tableBorderDxfId="213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A5:B7" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159" tableBorderDxfId="158">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del País" dataDxfId="137"/>
-    <tableColumn id="2" name="Código del País" dataDxfId="136"/>
+    <tableColumn id="1" name="Nombre del País" dataDxfId="157"/>
+    <tableColumn id="2" name="Código del País" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A5:C8" totalsRowShown="0" headerRowDxfId="199">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A5:C8" totalsRowShown="0" headerRowDxfId="155">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Departamento" dataDxfId="133"/>
-    <tableColumn id="2" name="País" dataDxfId="132"/>
+    <tableColumn id="1" name="Nombre del Departamento" dataDxfId="154"/>
+    <tableColumn id="2" name="País" dataDxfId="153"/>
     <tableColumn id="3" name="Concatenado">
       <calculatedColumnFormula>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</calculatedColumnFormula>
     </tableColumn>
@@ -2475,11 +2460,11 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla17" displayName="Tabla17" ref="A5:C8" totalsRowShown="0" headerRowDxfId="198" tableBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla17" displayName="Tabla17" ref="A5:C8" totalsRowShown="0" headerRowDxfId="152" tableBorderDxfId="151">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre de la Ciudad" dataDxfId="131"/>
-    <tableColumn id="2" name="Departamento-Estado" dataDxfId="129"/>
-    <tableColumn id="6" name="Columna2" dataDxfId="130">
+    <tableColumn id="1" name="Nombre de la Ciudad" dataDxfId="150"/>
+    <tableColumn id="2" name="Departamento-Estado" dataDxfId="149"/>
+    <tableColumn id="6" name="Columna2" dataDxfId="148">
       <calculatedColumnFormula>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2488,50 +2473,48 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A5:B6" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="211">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A5:B6" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146" tableBorderDxfId="145">
   <tableColumns count="2">
-    <tableColumn id="1" name="Código del Tipo" dataDxfId="128"/>
-    <tableColumn id="2" name="Nombre del Tipo" dataDxfId="127"/>
+    <tableColumn id="1" name="Código del Tipo" dataDxfId="144"/>
+    <tableColumn id="2" name="Nombre del Tipo" dataDxfId="143"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A5:J6" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113" tableBorderDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A5:J6" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141" tableBorderDxfId="140">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nombre del Satelite" dataDxfId="124"/>
-    <tableColumn id="2" name="Dirección del Satelite" dataDxfId="123"/>
-    <tableColumn id="3" name="Tipo de Identificación" dataDxfId="122"/>
-    <tableColumn id="4" name="Identificación" dataDxfId="121"/>
-    <tableColumn id="5" name="Teléfono" dataDxfId="120"/>
-    <tableColumn id="6" name="Fax" dataDxfId="119"/>
-    <tableColumn id="7" name="Email" dataDxfId="118"/>
-    <tableColumn id="8" name="Ciudad" dataDxfId="117"/>
-    <tableColumn id="9" name="Representante Legal" dataDxfId="116"/>
-    <tableColumn id="10" name="Activo" dataDxfId="115"/>
+    <tableColumn id="1" name="Nombre del Satelite" dataDxfId="139"/>
+    <tableColumn id="2" name="Dirección del Satelite" dataDxfId="138"/>
+    <tableColumn id="3" name="Tipo de Identificación" dataDxfId="137"/>
+    <tableColumn id="4" name="Identificación" dataDxfId="136"/>
+    <tableColumn id="5" name="Teléfono" dataDxfId="135"/>
+    <tableColumn id="6" name="Fax" dataDxfId="134"/>
+    <tableColumn id="7" name="Email" dataDxfId="133"/>
+    <tableColumn id="8" name="Ciudad" dataDxfId="132"/>
+    <tableColumn id="9" name="Representante Legal" dataDxfId="131"/>
+    <tableColumn id="10" name="Activo" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A5:N6" totalsRowShown="0" tableBorderDxfId="214">
-  <tableColumns count="14">
-    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="112"/>
-    <tableColumn id="2" name="Identificación" dataDxfId="111"/>
-    <tableColumn id="3" name="Nombre" dataDxfId="110"/>
-    <tableColumn id="4" name="Teléfono 1" dataDxfId="109"/>
-    <tableColumn id="5" name="Teléfono 2" dataDxfId="108"/>
-    <tableColumn id="6" name="Fax" dataDxfId="107"/>
-    <tableColumn id="7" name="Dirección" dataDxfId="106"/>
-    <tableColumn id="8" name="Celular" dataDxfId="105"/>
-    <tableColumn id="9" name="Correo Electrónico 1" dataDxfId="104"/>
-    <tableColumn id="10" name="Correo Electrónico 12" dataDxfId="103"/>
-    <tableColumn id="11" name="Ciudad" dataDxfId="102"/>
-    <tableColumn id="12" name="Correo Electrónico 3" dataDxfId="101"/>
-    <tableColumn id="13" name="Envio de Correo" dataDxfId="99"/>
-    <tableColumn id="15" name="Columna4" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A5:L6" totalsRowShown="0" tableBorderDxfId="129">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="128"/>
+    <tableColumn id="2" name="Identificación" dataDxfId="127"/>
+    <tableColumn id="3" name="Nombre" dataDxfId="126"/>
+    <tableColumn id="4" name="Teléfono 1" dataDxfId="125"/>
+    <tableColumn id="5" name="Teléfono 2" dataDxfId="124"/>
+    <tableColumn id="6" name="Fax" dataDxfId="123"/>
+    <tableColumn id="7" name="Dirección" dataDxfId="122"/>
+    <tableColumn id="8" name="Celular" dataDxfId="121"/>
+    <tableColumn id="9" name="Correo Electrónico" dataDxfId="120"/>
+    <tableColumn id="11" name="Ciudad" dataDxfId="119"/>
+    <tableColumn id="13" name="Envio de Correo" dataDxfId="118"/>
+    <tableColumn id="15" name="Columna4" dataDxfId="117">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2540,48 +2523,48 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla20" displayName="Tabla20" ref="A5:E6" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92" tableBorderDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla20" displayName="Tabla20" ref="A5:E6" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" tableBorderDxfId="114">
   <tableColumns count="5">
-    <tableColumn id="1" name="Cliente " dataDxfId="98"/>
-    <tableColumn id="2" name="Nombre del Contacto" dataDxfId="97"/>
-    <tableColumn id="3" name="Título" dataDxfId="96"/>
-    <tableColumn id="4" name="Teléfono" dataDxfId="95"/>
-    <tableColumn id="5" name="Correo Electrónico" dataDxfId="94"/>
+    <tableColumn id="1" name="Cliente " dataDxfId="113"/>
+    <tableColumn id="2" name="Nombre del Contacto" dataDxfId="112"/>
+    <tableColumn id="3" name="Título" dataDxfId="111"/>
+    <tableColumn id="4" name="Teléfono" dataDxfId="110"/>
+    <tableColumn id="5" name="Correo Electrónico" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla2021" displayName="Tabla2021" ref="A5:H6" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" tableBorderDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla2021" displayName="Tabla2021" ref="A5:H6" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107" tableBorderDxfId="106">
   <tableColumns count="8">
-    <tableColumn id="1" name="Nombre" dataDxfId="91"/>
-    <tableColumn id="2" name="Teléfono 1" dataDxfId="90"/>
-    <tableColumn id="3" name="Teléfono 2" dataDxfId="89"/>
-    <tableColumn id="4" name="Fax" dataDxfId="88"/>
-    <tableColumn id="9" name="Dirección" dataDxfId="87"/>
-    <tableColumn id="10" name="Correo Electrónico 1" dataDxfId="86"/>
-    <tableColumn id="7" name="Correo Electrónico 2" dataDxfId="85"/>
-    <tableColumn id="5" name="Ciudad " dataDxfId="84"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="105"/>
+    <tableColumn id="2" name="Teléfono 1" dataDxfId="104"/>
+    <tableColumn id="3" name="Teléfono 2" dataDxfId="103"/>
+    <tableColumn id="4" name="Fax" dataDxfId="102"/>
+    <tableColumn id="9" name="Dirección" dataDxfId="101"/>
+    <tableColumn id="10" name="Correo Electrónico 1" dataDxfId="100"/>
+    <tableColumn id="7" name="Correo Electrónico 2" dataDxfId="99"/>
+    <tableColumn id="5" name="Ciudad " dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla202122" displayName="Tabla202122" ref="A5:K6" totalsRowShown="0" headerRowDxfId="195" tableBorderDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla202122" displayName="Tabla202122" ref="A5:K6" totalsRowShown="0" headerRowDxfId="97" tableBorderDxfId="96">
   <tableColumns count="11">
-    <tableColumn id="1" name="Transportadora" dataDxfId="81"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="80"/>
-    <tableColumn id="3" name="Teléfono 1" dataDxfId="79"/>
-    <tableColumn id="4" name="Teléfono 2" dataDxfId="78"/>
-    <tableColumn id="9" name="Fax" dataDxfId="77"/>
-    <tableColumn id="10" name="Dirección" dataDxfId="76"/>
-    <tableColumn id="7" name="Ciudad" dataDxfId="75"/>
-    <tableColumn id="12" name="Contacto" dataDxfId="74"/>
-    <tableColumn id="11" name="Correo Electrónico 1" dataDxfId="73"/>
-    <tableColumn id="5" name="Correo Electrónico 2" dataDxfId="71"/>
-    <tableColumn id="13" name="Concatenado" dataDxfId="72">
+    <tableColumn id="1" name="Transportadora" dataDxfId="95"/>
+    <tableColumn id="2" name="Nombre" dataDxfId="94"/>
+    <tableColumn id="3" name="Teléfono 1" dataDxfId="93"/>
+    <tableColumn id="4" name="Teléfono 2" dataDxfId="92"/>
+    <tableColumn id="9" name="Fax" dataDxfId="91"/>
+    <tableColumn id="10" name="Dirección" dataDxfId="90"/>
+    <tableColumn id="7" name="Ciudad" dataDxfId="89"/>
+    <tableColumn id="12" name="Contacto" dataDxfId="88"/>
+    <tableColumn id="11" name="Correo Electrónico 1" dataDxfId="87"/>
+    <tableColumn id="5" name="Correo Electrónico 2" dataDxfId="86"/>
+    <tableColumn id="13" name="Concatenado" dataDxfId="85">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2590,86 +2573,86 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A5:C6" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172" tableBorderDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A5:C6" totalsRowShown="0" headerRowDxfId="208" dataDxfId="207" tableBorderDxfId="206">
   <tableColumns count="3">
-    <tableColumn id="1" name="Código del Area" dataDxfId="176"/>
-    <tableColumn id="2" name="Nombre del Area" dataDxfId="175"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="174"/>
+    <tableColumn id="1" name="Código del Area" dataDxfId="205"/>
+    <tableColumn id="2" name="Nombre del Area" dataDxfId="204"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla20212223" displayName="Tabla20212223" ref="A5:B6" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla20212223" displayName="Tabla20212223" ref="A5:B6" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83" tableBorderDxfId="82">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Método" dataDxfId="70"/>
-    <tableColumn id="2" name="Descripción " dataDxfId="69"/>
+    <tableColumn id="1" name="Nombre del Método" dataDxfId="81"/>
+    <tableColumn id="2" name="Descripción " dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla2021222324" displayName="Tabla2021222324" ref="A5:B6" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla2021222324" displayName="Tabla2021222324" ref="A5:B6" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
   <tableColumns count="2">
-    <tableColumn id="1" name="Metodo de Transporte" dataDxfId="66"/>
-    <tableColumn id="2" name="Agente de la Transportadora" dataDxfId="65"/>
+    <tableColumn id="1" name="Metodo de Transporte" dataDxfId="76"/>
+    <tableColumn id="2" name="Agente de la Transportadora" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla202122232425" displayName="Tabla202122232425" ref="A5:D6" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla202122232425" displayName="Tabla202122232425" ref="A5:D6" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
   <tableColumns count="4">
-    <tableColumn id="1" name="Código" dataDxfId="62"/>
-    <tableColumn id="15" name="Nombre" dataDxfId="61"/>
-    <tableColumn id="14" name="Afecta la Pagina" dataDxfId="60"/>
-    <tableColumn id="2" name="Activa" dataDxfId="59"/>
+    <tableColumn id="1" name="Código" dataDxfId="71"/>
+    <tableColumn id="15" name="Nombre" dataDxfId="70"/>
+    <tableColumn id="14" name="Afecta la Pagina" dataDxfId="69"/>
+    <tableColumn id="2" name="Activa" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla20212223242526" displayName="Tabla20212223242526" ref="A5:A6" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla20212223242526" displayName="Tabla20212223242526" ref="A5:A6" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre" dataDxfId="56"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla2021222324252627" displayName="Tabla2021222324252627" ref="A5:A6" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="189">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla2021222324252627" displayName="Tabla2021222324252627" ref="A5:A6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre" dataDxfId="53"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla20212223242528" displayName="Tabla20212223242528" ref="A5:Q6" totalsRowShown="0" headerRowDxfId="180" tableBorderDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla20212223242528" displayName="Tabla20212223242528" ref="A5:Q6" totalsRowShown="0" headerRowDxfId="59" tableBorderDxfId="58">
   <tableColumns count="17">
-    <tableColumn id="1" name="Código de Linea" dataDxfId="50"/>
-    <tableColumn id="15" name="Referencia Interna" dataDxfId="49"/>
-    <tableColumn id="14" name="Nombre del Artículo" dataDxfId="48"/>
-    <tableColumn id="19" name="Reerencia para el proveedor" dataDxfId="47"/>
-    <tableColumn id="20" name="Nombre del Artículo para el Proveedor" dataDxfId="46"/>
-    <tableColumn id="21" name="Costo Fob" dataDxfId="45"/>
-    <tableColumn id="22" name="Moneda" dataDxfId="43"/>
-    <tableColumn id="17" name="Descripción" dataDxfId="41"/>
-    <tableColumn id="18" name="Costo Cif" dataDxfId="42"/>
-    <tableColumn id="27" name="Volumen" dataDxfId="44"/>
-    <tableColumn id="28" name="Peso" dataDxfId="40"/>
-    <tableColumn id="25" name="Unidad de medida Fob" dataDxfId="39"/>
-    <tableColumn id="26" name="Unidad de Medida Cif" dataDxfId="38"/>
-    <tableColumn id="23" name="Producto Nacional" dataDxfId="37"/>
-    <tableColumn id="24" name="Activo" dataDxfId="36"/>
-    <tableColumn id="16" name="Visible en el Catalogo Externo" dataDxfId="34"/>
-    <tableColumn id="29" name="Combinado" dataDxfId="35">
+    <tableColumn id="1" name="Código de Linea" dataDxfId="57"/>
+    <tableColumn id="15" name="Referencia Interna" dataDxfId="56"/>
+    <tableColumn id="14" name="Nombre del Artículo" dataDxfId="55"/>
+    <tableColumn id="19" name="Reerencia para el proveedor" dataDxfId="54"/>
+    <tableColumn id="20" name="Nombre del Artículo para el Proveedor" dataDxfId="53"/>
+    <tableColumn id="21" name="Costo Fob" dataDxfId="52"/>
+    <tableColumn id="22" name="Moneda" dataDxfId="51"/>
+    <tableColumn id="17" name="Descripción" dataDxfId="50"/>
+    <tableColumn id="18" name="Costo Cif" dataDxfId="49"/>
+    <tableColumn id="27" name="Volumen" dataDxfId="48"/>
+    <tableColumn id="28" name="Peso" dataDxfId="47"/>
+    <tableColumn id="25" name="Unidad de medida Fob" dataDxfId="46"/>
+    <tableColumn id="26" name="Unidad de Medida Cif" dataDxfId="45"/>
+    <tableColumn id="23" name="Producto Nacional" dataDxfId="44"/>
+    <tableColumn id="24" name="Activo" dataDxfId="43"/>
+    <tableColumn id="16" name="Visible en el Catalogo Externo" dataDxfId="42"/>
+    <tableColumn id="29" name="Combinado" dataDxfId="41">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2678,29 +2661,29 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla20212223242529" displayName="Tabla20212223242529" ref="A5:B6" insertRow="1" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla20212223242529" displayName="Tabla20212223242529" ref="A5:B6" insertRow="1" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <tableColumns count="2">
-    <tableColumn id="1" name="Referencia Interna Artículo" dataDxfId="33"/>
-    <tableColumn id="15" name="Código del Area" dataDxfId="32"/>
+    <tableColumn id="1" name="Referencia Interna Artículo" dataDxfId="37"/>
+    <tableColumn id="15" name="Código del Area" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabla2021222324252930" displayName="Tabla2021222324252930" ref="A5:K6" totalsRowShown="0" headerRowDxfId="185" tableBorderDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabla2021222324252930" displayName="Tabla2021222324252930" ref="A5:K6" totalsRowShown="0" headerRowDxfId="35" tableBorderDxfId="34">
   <tableColumns count="11">
-    <tableColumn id="1" name="Referencia Interna artículo" dataDxfId="29"/>
-    <tableColumn id="24" name="Referencia" dataDxfId="28"/>
-    <tableColumn id="23" name="Referencia para el proveedor" dataDxfId="27"/>
-    <tableColumn id="22" name="Nombre de la referencia" dataDxfId="26"/>
-    <tableColumn id="21" name="Nombre de la referencia para el proveedor" dataDxfId="25"/>
-    <tableColumn id="20" name="Descripción" dataDxfId="24"/>
-    <tableColumn id="19" name="Cantidad en Bodega Local" dataDxfId="23"/>
-    <tableColumn id="18" name="Cantidad en Zona Franca" dataDxfId="22"/>
-    <tableColumn id="17" name="Activo" dataDxfId="20"/>
-    <tableColumn id="26" name="Cantidad Minima para Alarma" dataDxfId="21"/>
-    <tableColumn id="27" name="Combinado" dataDxfId="184">
+    <tableColumn id="1" name="Referencia Interna artículo" dataDxfId="33"/>
+    <tableColumn id="24" name="Referencia" dataDxfId="32"/>
+    <tableColumn id="23" name="Referencia para el proveedor" dataDxfId="31"/>
+    <tableColumn id="22" name="Nombre de la referencia" dataDxfId="30"/>
+    <tableColumn id="21" name="Nombre de la referencia para el proveedor" dataDxfId="29"/>
+    <tableColumn id="20" name="Descripción" dataDxfId="28"/>
+    <tableColumn id="19" name="Cantidad en Bodega Local" dataDxfId="27"/>
+    <tableColumn id="18" name="Cantidad en Zona Franca" dataDxfId="26"/>
+    <tableColumn id="17" name="Activo" dataDxfId="25"/>
+    <tableColumn id="26" name="Cantidad Minima para Alarma" dataDxfId="24"/>
+    <tableColumn id="27" name="Combinado" dataDxfId="23">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2709,7 +2692,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabla20212223242531" displayName="Tabla20212223242531" ref="A5:J6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabla20212223242531" displayName="Tabla20212223242531" ref="A5:J6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
   <tableColumns count="10">
     <tableColumn id="1" name="Tipo de Identificación" dataDxfId="19"/>
     <tableColumn id="15" name="Identificación" dataDxfId="18"/>
@@ -2727,92 +2710,92 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabla20212223242532" displayName="Tabla20212223242532" ref="A5:B6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="182">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabla20212223242532" displayName="Tabla20212223242532" ref="A5:B6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <tableColumns count="2">
-    <tableColumn id="1" name="Código del Proveedor" dataDxfId="7"/>
-    <tableColumn id="15" name="Referencia" dataDxfId="6"/>
+    <tableColumn id="1" name="Código del Proveedor" dataDxfId="6"/>
+    <tableColumn id="15" name="Referencia" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A5:B6" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168" tableBorderDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A5:B6" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201" tableBorderDxfId="200">
   <tableColumns count="2">
-    <tableColumn id="1" name="Actividad" dataDxfId="171"/>
-    <tableColumn id="2" name="Area" dataDxfId="170"/>
+    <tableColumn id="1" name="Actividad" dataDxfId="199"/>
+    <tableColumn id="2" name="Area" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla20212223242533" displayName="Tabla20212223242533" ref="A5:B6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla20212223242533" displayName="Tabla20212223242533" ref="A5:B6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Método" dataDxfId="3"/>
-    <tableColumn id="15" name="Descripción" dataDxfId="2"/>
+    <tableColumn id="1" name="Nombre del Método" dataDxfId="1"/>
+    <tableColumn id="15" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A5:B6" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164" tableBorderDxfId="206">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A5:B6" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" tableBorderDxfId="195">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="167"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="166"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="194"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A5:B6" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160" tableBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A5:B6" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191" tableBorderDxfId="190">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Tipo de Ajuste" dataDxfId="163"/>
-    <tableColumn id="2" name="Afectación sobre el Inventario" dataDxfId="162"/>
+    <tableColumn id="1" name="Nombre del Tipo de Ajuste" dataDxfId="189"/>
+    <tableColumn id="2" name="Afectación sobre el Inventario" dataDxfId="188"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A5:B6" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156" tableBorderDxfId="204">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A5:B6" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186" tableBorderDxfId="185">
   <tableColumns count="2">
-    <tableColumn id="1" name="Tipo de Documento" dataDxfId="159"/>
-    <tableColumn id="2" name="Nombre del Tipo de Alarma" dataDxfId="158"/>
+    <tableColumn id="1" name="Tipo de Documento" dataDxfId="184"/>
+    <tableColumn id="2" name="Nombre del Tipo de Alarma" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A5:B6" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152" tableBorderDxfId="203">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A5:B6" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181" tableBorderDxfId="180">
   <tableColumns count="2">
-    <tableColumn id="1" name="Tipo de Alarma" dataDxfId="155"/>
-    <tableColumn id="2" name="Mensaje" dataDxfId="154"/>
+    <tableColumn id="1" name="Tipo de Alarma" dataDxfId="179"/>
+    <tableColumn id="2" name="Mensaje" dataDxfId="178"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A5:C6" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147" tableBorderDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A5:C6" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176" tableBorderDxfId="175">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="151"/>
-    <tableColumn id="2" name="Tipo de Documento" dataDxfId="150"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="149"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="174"/>
+    <tableColumn id="2" name="Tipo de Documento" dataDxfId="173"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="172"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla18" displayName="Tabla18" ref="A5:C6" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" tableBorderDxfId="201">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla18" displayName="Tabla18" ref="A5:C6" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170" tableBorderDxfId="169">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="146"/>
-    <tableColumn id="2" name="Tipo de Documento" dataDxfId="145"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="144"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="168"/>
+    <tableColumn id="2" name="Tipo de Documento" dataDxfId="167"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3107,7 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3132,96 +3115,96 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -3292,58 +3275,58 @@
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3372,70 +3355,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="21" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="21"/>
-    <col min="9" max="9" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="24.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="15" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41"/>
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3463,41 +3446,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="24.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3520,65 +3503,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="29" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>113</v>
+      <c r="A7" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3600,58 +3583,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" style="29" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="27" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>111</v>
+      <c r="B5" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C6" t="str">
@@ -3660,10 +3643,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C7" t="str">
@@ -3672,11 +3655,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>113</v>
+      <c r="A8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="C8" t="str">
         <f>IF(B8&lt;&gt;"",IF(A8&lt;&gt;"",CONCATENATE(B8,"-",A8),""),"")</f>
@@ -3714,58 +3697,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="21" style="29" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21" style="23" customWidth="1"/>
     <col min="3" max="3" width="24" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>81</v>
+      <c r="B5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="4" t="str">
@@ -3774,25 +3757,25 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="14" t="str">
         <f>IF(B7&lt;&gt;"",IF(A7&lt;&gt;"",CONCATENATE(B7,"-",A7),""),"")</f>
         <v>CO-Cundinamarca-Chia</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="20" t="str">
+      <c r="A8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="14" t="str">
         <f>IF(B8&lt;&gt;"",IF(A8&lt;&gt;"",CONCATENATE(B8,"-",A8),""),"")</f>
         <v>USA-Florida-Miami</v>
       </c>
@@ -3828,52 +3811,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="24" style="29" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="24.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="24" style="23" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>118</v>
+      <c r="A6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3895,151 +3878,157 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22" style="29" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="29" customWidth="1"/>
-    <col min="4" max="7" width="17" style="29" customWidth="1"/>
-    <col min="8" max="8" width="24" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="21" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="21"/>
-    <col min="14" max="14" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="21" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22" style="23" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="23" customWidth="1"/>
+    <col min="4" max="7" width="17" style="23" customWidth="1"/>
+    <col min="8" max="8" width="24" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="15" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="15"/>
+    <col min="14" max="14" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38" t="s">
+      <c r="E4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="39" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N6" s="21" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N7" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
       <formula1>$N$6:$N$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:I7">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4048,24 +4037,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Tipos de Identificación'!$A$6:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>C6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H7:I7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H8:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4083,193 +4060,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="24" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="29" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="12" style="4" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="21" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="25.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="24" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43" t="s">
+      <c r="K3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="F5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="H5" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="J5" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N6" s="4" t="str">
+      <c r="L5" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="4" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
         <v/>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="M6" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O7" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M1048576">
-      <formula1>$O$6:$O$7</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1048576">
+      <formula1>$M$6:$M$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J1048576">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4278,7 +4238,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Tipos de Identificación'!$A$6:$A$100</xm:f>
@@ -4287,15 +4247,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K7:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Ciudades!$C$6:$C$99998</xm:f>
           </x14:formula1>
-          <xm:sqref>K6</xm:sqref>
+          <xm:sqref>J6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4314,78 +4268,78 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22" style="29" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="26.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22" style="23" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="C5" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="D5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4398,7 +4352,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Clientes!$N$6:$N$100000</xm:f>
+            <xm:f>Clientes!$L$6:$L$100000</xm:f>
           </x14:formula1>
           <xm:sqref>A6</xm:sqref>
         </x14:dataValidation>
@@ -4419,105 +4373,105 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="29" customWidth="1"/>
-    <col min="2" max="2" width="20" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="29" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="29" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="23" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="A1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="B4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="D5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>123</v>
+      <c r="F5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4551,33 +4505,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="21"/>
-    <col min="4" max="4" width="1.28515625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="24.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="15"/>
+    <col min="4" max="4" width="1.28515625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4600,138 +4554,138 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="29" customWidth="1"/>
-    <col min="2" max="5" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" style="29" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="23" customWidth="1"/>
+    <col min="2" max="5" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.85546875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="21"/>
+    <col min="12" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="E5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="39" t="s">
+      <c r="H5" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>111</v>
+      <c r="I5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K6" s="21" t="str">
+      <c r="K6" s="15" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
         <v/>
       </c>
@@ -4773,43 +4727,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="22.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>128</v>
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4831,43 +4785,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="26.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>131</v>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4907,80 +4861,80 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="2" width="28.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>86</v>
+      <c r="A6" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5007,32 +4961,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="22.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>136</v>
+      <c r="A1" s="28" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>93</v>
+    <row r="5" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5054,31 +5008,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="22" style="23" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>137</v>
+      <c r="A1" s="28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>93</v>
+    <row r="5" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -5100,218 +5054,218 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="11" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="29" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="23" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="21"/>
+    <col min="18" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="44" t="s">
+      <c r="F5" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="G5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="49" t="s">
+      <c r="J5" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="K5" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="56" t="s">
+      <c r="L5" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="M5" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="N5" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="O5" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F6" s="51"/>
-      <c r="Q6" s="21" t="str">
+      <c r="F6" s="44"/>
+      <c r="Q6" s="15" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
         <v/>
       </c>
@@ -5364,42 +5318,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="28.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="39" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5440,156 +5394,156 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="50" customWidth="1"/>
-    <col min="9" max="9" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="43" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="21"/>
+    <col min="11" max="11" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="E5" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="I5" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="21" t="str">
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="15" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
         <v/>
       </c>
@@ -5637,123 +5591,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="29" customWidth="1"/>
-    <col min="2" max="7" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="29"/>
-    <col min="11" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="23.5703125" style="23" customWidth="1"/>
+    <col min="2" max="7" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="23"/>
+    <col min="11" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="G4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="C5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" s="39" t="s">
+      <c r="H5" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="32" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5794,52 +5748,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="1.28515625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="20.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="1.28515625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5862,43 +5816,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="23.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>160</v>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5938,40 +5892,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="19.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5994,43 +5948,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="18.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6071,41 +6025,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="21.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41"/>
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6128,55 +6082,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="2" style="21" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="21"/>
-    <col min="9" max="9" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="26.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="2" style="15" customWidth="1"/>
+    <col min="4" max="8" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6204,60 +6158,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="21" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="21"/>
-    <col min="9" max="9" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="27.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="15" customWidth="1"/>
+    <col min="4" max="8" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6285,43 +6239,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="18.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6356,70 +6310,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="29" customWidth="1"/>
-    <col min="4" max="4" width="1" style="21" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="21"/>
-    <col min="9" max="9" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="21"/>
+    <col min="1" max="1" width="20.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="1" style="15" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41"/>
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="15" t="s">
         <v>43</v>
       </c>
     </row>

--- a/documentos/Formato definicion poblado inicial de tablas de parametrizacion Aldebaran.xlsx
+++ b/documentos/Formato definicion poblado inicial de tablas de parametrizacion Aldebaran.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2850" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="4680" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="21" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Descripcion del Archivo" sheetId="32" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="Referencias por Proveedor" sheetId="29" r:id="rId30"/>
     <sheet name="Metodos de envio" sheetId="30" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="379">
   <si>
     <t>*</t>
   </si>
@@ -631,9 +631,6 @@
     <t>Importados</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Relacione las referencias que pertenecen a cada artículo, tenga especial enfacis en las cantidades en existencias en las bodegas. 
 No deberia haber cantidades comprometidas ni reservadas, ya que no existe información de Ordenes, Pedidos o Reservas en el sistema que las soporte.
@@ -693,15 +690,656 @@
   <si>
     <t>Código del Proveedor</t>
   </si>
+  <si>
+    <t xml:space="preserve">insert into </t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>activity_types</t>
+  </si>
+  <si>
+    <t>ACTIVITY_TYPE_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> values </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (</t>
+  </si>
+  <si>
+    <t>Logo Pendiente</t>
+  </si>
+  <si>
+    <t>areas</t>
+  </si>
+  <si>
+    <t>AREA_CODE,AREA_NAME,DESCRIPTION</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Despachos</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>activity_types_area</t>
+  </si>
+  <si>
+    <t>ACTIVITY_TYPE_ID, AREA_ID</t>
+  </si>
+  <si>
+    <t>Pedido Incompleto</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Marca Nacional</t>
+  </si>
+  <si>
+    <t>Servicio al cliente nacional</t>
+  </si>
+  <si>
+    <t>adjustment_reasons</t>
+  </si>
+  <si>
+    <t>ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES</t>
+  </si>
+  <si>
+    <t>Dif. Ent. Nacionalización</t>
+  </si>
+  <si>
+    <t>Devolución</t>
+  </si>
+  <si>
+    <t>Producto Defectuoso</t>
+  </si>
+  <si>
+    <t>Por Ensamble</t>
+  </si>
+  <si>
+    <t>adjustment_types</t>
+  </si>
+  <si>
+    <t>ADJUSTMENT_TYPE_NAME, OPERATOR</t>
+  </si>
+  <si>
+    <t>iingresar</t>
+  </si>
+  <si>
+    <t>retirar</t>
+  </si>
+  <si>
+    <t>Alarmas de Ordenes</t>
+  </si>
+  <si>
+    <t>Alarmas de Pedidos</t>
+  </si>
+  <si>
+    <t>Alarmas de Reservas</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Alarmas para Pedidos</t>
+  </si>
+  <si>
+    <t>Alarmas para Reservas</t>
+  </si>
+  <si>
+    <t>Alarmas para Ordenes de Compra</t>
+  </si>
+  <si>
+    <t>alarm_types</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE_ID, NAME, DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Revisar estado de importacion</t>
+  </si>
+  <si>
+    <t>Confirmar Marcacion de Articulos</t>
+  </si>
+  <si>
+    <t>ALARM_TYPE_ID, ALARM_MESSAGE</t>
+  </si>
+  <si>
+    <t>alarm_messages</t>
+  </si>
+  <si>
+    <t>solicitud del cliente</t>
+  </si>
+  <si>
+    <t>Inventario Insuficiente</t>
+  </si>
+  <si>
+    <t>Cancelado por el cliente</t>
+  </si>
+  <si>
+    <t>Proveedor no cuenta con los Articulos solicitados</t>
+  </si>
+  <si>
+    <t>CANCELLATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES</t>
+  </si>
+  <si>
+    <t>cancellation_reasons</t>
+  </si>
+  <si>
+    <t>Error en cantidades</t>
+  </si>
+  <si>
+    <t>Eliminar Articulos</t>
+  </si>
+  <si>
+    <t>Cambio de vencimiento</t>
+  </si>
+  <si>
+    <t>modification_reasons</t>
+  </si>
+  <si>
+    <t>MODIFICATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES</t>
+  </si>
+  <si>
+    <t>Falta de Articulos</t>
+  </si>
+  <si>
+    <t>Solicitud del Cliente</t>
+  </si>
+  <si>
+    <t>Error en Pedido</t>
+  </si>
+  <si>
+    <t>no se completo el stock del pedido</t>
+  </si>
+  <si>
+    <t>close_customer_order_reasons</t>
+  </si>
+  <si>
+    <t>CLOSE_REASON_NAME, CLOSE_REASON_NOTES</t>
+  </si>
+  <si>
+    <t>COUNTRY_NAME, COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>DEPARTMENT_NAME, COUNTRY_ID</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>Nit Empresa</t>
+  </si>
+  <si>
+    <t>identity_types</t>
+  </si>
+  <si>
+    <t>IDENTITY_TYPE_CODE, IDENTITY_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>process_satellites</t>
+  </si>
+  <si>
+    <t>PROCESS_SATELLITE_NAME, PROCESS_SATELLITE_ADDRESS, IDENTITY_TYPE_ID, IDENTITY_NUMBER, PHONE, FAX, EMAIL, CITY_ID, LEGAL_REPRESENTATIVE, IS_ACTIVE</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Proplasticos</t>
+  </si>
+  <si>
+    <t>Etipress S.A</t>
+  </si>
+  <si>
+    <t>Cra 39 B nº 17-98</t>
+  </si>
+  <si>
+    <t>123458</t>
+  </si>
+  <si>
+    <t>568745</t>
+  </si>
+  <si>
+    <t>23658</t>
+  </si>
+  <si>
+    <t>3007854516</t>
+  </si>
+  <si>
+    <t>3016254578</t>
+  </si>
+  <si>
+    <t>3142458963</t>
+  </si>
+  <si>
+    <t>Satelite Mugs</t>
+  </si>
+  <si>
+    <t>mugs@gmail.com</t>
+  </si>
+  <si>
+    <t>planta@catalogospromocionales.com</t>
+  </si>
+  <si>
+    <t>etipress_info@etipress.com.co</t>
+  </si>
+  <si>
+    <t>CO-Cundinamarca-Bogota</t>
+  </si>
+  <si>
+    <t>CO-Cundinamarca-Chia</t>
+  </si>
+  <si>
+    <t>USA-Florida-Miami</t>
+  </si>
+  <si>
+    <t>Gustavo Ramirez</t>
+  </si>
+  <si>
+    <t>Perencejo</t>
+  </si>
+  <si>
+    <t>Fulanito</t>
+  </si>
+  <si>
+    <t>79872389</t>
+  </si>
+  <si>
+    <t>Andres Diaz</t>
+  </si>
+  <si>
+    <t>3008987553</t>
+  </si>
+  <si>
+    <t>3004587458</t>
+  </si>
+  <si>
+    <t>ardc2440@gmail.com;paolaflorezp@gmail.com</t>
+  </si>
+  <si>
+    <t>35427339</t>
+  </si>
+  <si>
+    <t>Paola Florez</t>
+  </si>
+  <si>
+    <t>3542658925</t>
+  </si>
+  <si>
+    <t>3112457856</t>
+  </si>
+  <si>
+    <t>calle 4a # 29 - 25</t>
+  </si>
+  <si>
+    <t>Carrera 2 b # 11 - 25</t>
+  </si>
+  <si>
+    <t>3014296649</t>
+  </si>
+  <si>
+    <t>paolaflorezp@gmail.com</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>IDENTITY_TYPE_ID, IDENTITY_NUMBER, CUSTOMER_NAME, PHONE1, PHONE2, FAX, CUSTOMER_ADDRESS, CELL_PHONE, EMAIL, CITY_ID, SEND_EMAIL</t>
+  </si>
+  <si>
+    <t>CC-79872389</t>
+  </si>
+  <si>
+    <t>andres diaz</t>
+  </si>
+  <si>
+    <t>propietario</t>
+  </si>
+  <si>
+    <t>ardc2440@gmail.com</t>
+  </si>
+  <si>
+    <t>CC-35427339</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>3014662769</t>
+  </si>
+  <si>
+    <t>customer_contacts</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID, CUSTOMER_CONTACT_NAME, TITLE, PHONE, EMAIL</t>
+  </si>
+  <si>
+    <t>trasportes fusa</t>
+  </si>
+  <si>
+    <t>745585</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>5456456452</t>
+  </si>
+  <si>
+    <t>calle 15 parque internacional central</t>
+  </si>
+  <si>
+    <t>InterTransMar@gmail.com</t>
+  </si>
+  <si>
+    <t>International Trans Mar</t>
+  </si>
+  <si>
+    <t>la casona local 1234</t>
+  </si>
+  <si>
+    <t>mi_correo@correo.com</t>
+  </si>
+  <si>
+    <t>forwarders</t>
+  </si>
+  <si>
+    <t>FORWARDER_NAME, PHONE1, PHONE2, FAX, FORWARDER_ADDRESS, MAIL1, MAIL2, CITY_ID</t>
+  </si>
+  <si>
+    <t>Carmelita la nita</t>
+  </si>
+  <si>
+    <t>5454548787</t>
+  </si>
+  <si>
+    <t>21352124</t>
+  </si>
+  <si>
+    <t>Calle 40 # 20 - 23</t>
+  </si>
+  <si>
+    <t>Camela Nita Lopez</t>
+  </si>
+  <si>
+    <t>carmela@fusa.com</t>
+  </si>
+  <si>
+    <t>Transmar Colombia</t>
+  </si>
+  <si>
+    <t>54252262</t>
+  </si>
+  <si>
+    <t>875412363</t>
+  </si>
+  <si>
+    <t>Calle 28 # 12 - 35</t>
+  </si>
+  <si>
+    <t>Jose Lopez</t>
+  </si>
+  <si>
+    <t>Lopez.jose@transmar.com</t>
+  </si>
+  <si>
+    <t>FORWARDER_ID, FORWARDER_AGENT_NAME, PHONE1, PHONE2, FAX, FORWARDER_AGENT_ADDRESS, CITY_ID, CONTACT, EMAIL1, EMAIL2</t>
+  </si>
+  <si>
+    <t>forwarder_agents</t>
+  </si>
+  <si>
+    <t>Aereo</t>
+  </si>
+  <si>
+    <t>Transporte Aéreo</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Transporte Marítimo</t>
+  </si>
+  <si>
+    <t>Transporte Aéreo y Marítimo</t>
+  </si>
+  <si>
+    <t>Directo</t>
+  </si>
+  <si>
+    <t>Entrega local</t>
+  </si>
+  <si>
+    <t>SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES</t>
+  </si>
+  <si>
+    <t>shipment_methods</t>
+  </si>
+  <si>
+    <t>trasportes fusa-Carmelita la nita</t>
+  </si>
+  <si>
+    <t>International Trans Mar-Transmar Colombia</t>
+  </si>
+  <si>
+    <t>shipment_forwarder_agent_methods</t>
+  </si>
+  <si>
+    <t>SHIPMENT_METHOD_ID, FORWARDER_AGENT_ID</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t>LINE_CODE, LINE_NAME, IS_DEMON, IS_ACTIVE</t>
+  </si>
+  <si>
+    <t>EURO</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>currencies</t>
+  </si>
+  <si>
+    <t>CURRENCY_NAME</t>
+  </si>
+  <si>
+    <t>measure_units</t>
+  </si>
+  <si>
+    <t>MEASURE_UNIT_NAME</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>Centimetro Cúbico</t>
+  </si>
+  <si>
+    <t>Gramo</t>
+  </si>
+  <si>
+    <t>Pieza</t>
+  </si>
+  <si>
+    <t>Inventario Externo</t>
+  </si>
+  <si>
+    <t>linea</t>
+  </si>
+  <si>
+    <t>Inv. Externo</t>
+  </si>
+  <si>
+    <t>Unidad FOB</t>
+  </si>
+  <si>
+    <t>Unidad CIF</t>
+  </si>
+  <si>
+    <t>Prod Nal</t>
+  </si>
+  <si>
+    <t>Visible Cataogo Ext</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>MIPRUEBA PROV</t>
+  </si>
+  <si>
+    <t>0001 AZUL</t>
+  </si>
+  <si>
+    <t>MI PRUEBA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ojo con los separadores de decimales, la coma se confunde con las comas que separan el values de la sentecia SQL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toca mandar esos campos Decimal como cadena reemplazando primero el . Por nada y luego la , por . Pero hay que validar el formato que maneja el servidor de promos para evitar problemas al insertar los datos alla</t>
+    </r>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>LINE_ID, INTERNAL_REFERENCE, ITEM_NAME, PROVIDER_REFERENCE, PROVIDER_ITEM_NAME, FOB_COST, CURRENCY_ID, NOTES, IS_EXTERNAL_INVENTORY, CIF_COST, VOLUME, WEIGHT, FOB_MEASURE_UNIT_ID, CIF_MEASURE_UNIT_ID, IS_DOMESTIC_PRODUCT, IS_ACTIVE, IS_CATALOG_VISIBLE</t>
+  </si>
+  <si>
+    <t>MI001</t>
+  </si>
+  <si>
+    <t>001-MI001</t>
+  </si>
+  <si>
+    <t>ITEM_ID, AREA_ID</t>
+  </si>
+  <si>
+    <t>items_area</t>
+  </si>
+  <si>
+    <t>item_references</t>
+  </si>
+  <si>
+    <t>ITEM_ID, REFERENCE_CODE, PROVIDER_REFERENCE_CODE, REFERENCE_NAME, PROVIDER_REFERENCE_NAME, NOTES, INVENTORY_QUANTITY, IS_ACTIVE, ALARM_MINIMUM_QUANTITY</t>
+  </si>
+  <si>
+    <t>DECLARE @LOCAL SMALLINT = (SELECT WAREHOUSE_ID FROM warehouses WHERE WAREHOUSE_CODE = 1) DECLARE @FRANCA SMALLINT = (SELECT WAREHOUSE_ID FROM warehouses WHERE WAREHOUSE_CODE = 2)</t>
+  </si>
+  <si>
+    <t>id deItem</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>001AA</t>
+  </si>
+  <si>
+    <t>Amarillo</t>
+  </si>
+  <si>
+    <t>41401793</t>
+  </si>
+  <si>
+    <t>CARDASOC</t>
+  </si>
+  <si>
+    <t>Cardenas Asociados</t>
+  </si>
+  <si>
+    <t>300 4525212</t>
+  </si>
+  <si>
+    <t>info@cardasociados.com.co</t>
+  </si>
+  <si>
+    <t>Francelina Cardenas</t>
+  </si>
+  <si>
+    <t>providers</t>
+  </si>
+  <si>
+    <t>IDENTITY_TYPE_ID, IDENTITY_NUMBER, PROVIDER_CODE, PROVIDER_NAME, PROVIDER_ADDRESS, PHONE, FAX, EMAIL, CONTACT_PERSON, CITY_ID</t>
+  </si>
+  <si>
+    <t>calle 1 a No. 20 -34</t>
+  </si>
+  <si>
+    <t>cities</t>
+  </si>
+  <si>
+    <t>CITY_NAME, DEPARTMENT_ID</t>
+  </si>
+  <si>
+    <t>REFERENCE_ID, PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>provider_references</t>
+  </si>
+  <si>
+    <t>001-MI001-004</t>
+  </si>
+  <si>
+    <t>SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES</t>
+  </si>
+  <si>
+    <t>shipping_methods</t>
+  </si>
+  <si>
+    <t>Coordinadora</t>
+  </si>
+  <si>
+    <t>Servientrega</t>
+  </si>
+  <si>
+    <t>Redetrans</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,8 +1421,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +1465,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,10 +1585,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,9 +1667,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -999,6 +1674,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,14 +1700,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="213">
+  <dxfs count="215">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1302,22 +1991,25 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2159,6 +2851,9 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="medium">
           <color indexed="64"/>
@@ -2418,39 +3113,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="A5:A6" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211" tableBorderDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="A5:A7" totalsRowShown="0" headerRowDxfId="214" dataDxfId="213" tableBorderDxfId="212">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre de la actividad" dataDxfId="209"/>
+    <tableColumn id="1" name="Nombre de la actividad" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla19" displayName="Tabla19" ref="A5:B6" totalsRowShown="0" headerRowDxfId="165" dataDxfId="164" tableBorderDxfId="163">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla19" displayName="Tabla19" ref="A5:B8" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165" tableBorderDxfId="164">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="162"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="161"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="163"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A5:B7" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159" tableBorderDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A5:B7" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160" tableBorderDxfId="159">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del País" dataDxfId="157"/>
-    <tableColumn id="2" name="Código del País" dataDxfId="156"/>
+    <tableColumn id="1" name="Nombre del País" dataDxfId="158"/>
+    <tableColumn id="2" name="Código del País" dataDxfId="157"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A5:C8" totalsRowShown="0" headerRowDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A5:C8" totalsRowShown="0" headerRowDxfId="156">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Departamento" dataDxfId="154"/>
-    <tableColumn id="2" name="País" dataDxfId="153"/>
+    <tableColumn id="1" name="Nombre del Departamento" dataDxfId="155"/>
+    <tableColumn id="2" name="País" dataDxfId="154"/>
     <tableColumn id="3" name="Concatenado">
       <calculatedColumnFormula>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</calculatedColumnFormula>
     </tableColumn>
@@ -2460,11 +3155,11 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla17" displayName="Tabla17" ref="A5:C8" totalsRowShown="0" headerRowDxfId="152" tableBorderDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla17" displayName="Tabla17" ref="A5:C8" totalsRowShown="0" headerRowDxfId="153" tableBorderDxfId="152">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre de la Ciudad" dataDxfId="150"/>
-    <tableColumn id="2" name="Departamento-Estado" dataDxfId="149"/>
-    <tableColumn id="6" name="Columna2" dataDxfId="148">
+    <tableColumn id="1" name="Nombre de la Ciudad" dataDxfId="151"/>
+    <tableColumn id="2" name="Departamento-Estado" dataDxfId="150"/>
+    <tableColumn id="6" name="Columna2" dataDxfId="149">
       <calculatedColumnFormula>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2473,48 +3168,48 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A5:B6" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146" tableBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A5:B7" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147" tableBorderDxfId="146">
   <tableColumns count="2">
-    <tableColumn id="1" name="Código del Tipo" dataDxfId="144"/>
-    <tableColumn id="2" name="Nombre del Tipo" dataDxfId="143"/>
+    <tableColumn id="1" name="Código del Tipo" dataDxfId="145"/>
+    <tableColumn id="2" name="Nombre del Tipo" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A5:J6" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141" tableBorderDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A5:J8" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" tableBorderDxfId="141">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nombre del Satelite" dataDxfId="139"/>
-    <tableColumn id="2" name="Dirección del Satelite" dataDxfId="138"/>
-    <tableColumn id="3" name="Tipo de Identificación" dataDxfId="137"/>
-    <tableColumn id="4" name="Identificación" dataDxfId="136"/>
-    <tableColumn id="5" name="Teléfono" dataDxfId="135"/>
-    <tableColumn id="6" name="Fax" dataDxfId="134"/>
-    <tableColumn id="7" name="Email" dataDxfId="133"/>
-    <tableColumn id="8" name="Ciudad" dataDxfId="132"/>
-    <tableColumn id="9" name="Representante Legal" dataDxfId="131"/>
-    <tableColumn id="10" name="Activo" dataDxfId="130"/>
+    <tableColumn id="1" name="Nombre del Satelite" dataDxfId="140"/>
+    <tableColumn id="2" name="Dirección del Satelite" dataDxfId="139"/>
+    <tableColumn id="3" name="Tipo de Identificación" dataDxfId="138"/>
+    <tableColumn id="4" name="Identificación" dataDxfId="137"/>
+    <tableColumn id="5" name="Teléfono" dataDxfId="136"/>
+    <tableColumn id="6" name="Fax" dataDxfId="135"/>
+    <tableColumn id="7" name="Email" dataDxfId="134"/>
+    <tableColumn id="8" name="Ciudad" dataDxfId="133"/>
+    <tableColumn id="9" name="Representante Legal" dataDxfId="132"/>
+    <tableColumn id="10" name="Activo" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A5:L6" totalsRowShown="0" tableBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A5:L7" totalsRowShown="0" tableBorderDxfId="130">
   <tableColumns count="12">
-    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="128"/>
-    <tableColumn id="2" name="Identificación" dataDxfId="127"/>
-    <tableColumn id="3" name="Nombre" dataDxfId="126"/>
-    <tableColumn id="4" name="Teléfono 1" dataDxfId="125"/>
-    <tableColumn id="5" name="Teléfono 2" dataDxfId="124"/>
-    <tableColumn id="6" name="Fax" dataDxfId="123"/>
-    <tableColumn id="7" name="Dirección" dataDxfId="122"/>
-    <tableColumn id="8" name="Celular" dataDxfId="121"/>
-    <tableColumn id="9" name="Correo Electrónico" dataDxfId="120"/>
-    <tableColumn id="11" name="Ciudad" dataDxfId="119"/>
-    <tableColumn id="13" name="Envio de Correo" dataDxfId="118"/>
-    <tableColumn id="15" name="Columna4" dataDxfId="117">
+    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="129"/>
+    <tableColumn id="2" name="Identificación" dataDxfId="128"/>
+    <tableColumn id="3" name="Nombre" dataDxfId="127"/>
+    <tableColumn id="4" name="Teléfono 1" dataDxfId="126"/>
+    <tableColumn id="5" name="Teléfono 2" dataDxfId="125"/>
+    <tableColumn id="6" name="Fax" dataDxfId="124"/>
+    <tableColumn id="7" name="Dirección" dataDxfId="123"/>
+    <tableColumn id="8" name="Celular" dataDxfId="122"/>
+    <tableColumn id="9" name="Correo Electrónico" dataDxfId="121" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="11" name="Ciudad" dataDxfId="120"/>
+    <tableColumn id="13" name="Envio de Correo" dataDxfId="119"/>
+    <tableColumn id="15" name="Columna4" dataDxfId="118">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2523,48 +3218,48 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla20" displayName="Tabla20" ref="A5:E6" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla20" displayName="Tabla20" ref="A5:E7" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
   <tableColumns count="5">
-    <tableColumn id="1" name="Cliente " dataDxfId="113"/>
-    <tableColumn id="2" name="Nombre del Contacto" dataDxfId="112"/>
-    <tableColumn id="3" name="Título" dataDxfId="111"/>
-    <tableColumn id="4" name="Teléfono" dataDxfId="110"/>
-    <tableColumn id="5" name="Correo Electrónico" dataDxfId="109"/>
+    <tableColumn id="1" name="Cliente " dataDxfId="114"/>
+    <tableColumn id="2" name="Nombre del Contacto" dataDxfId="113"/>
+    <tableColumn id="3" name="Título" dataDxfId="112"/>
+    <tableColumn id="4" name="Teléfono" dataDxfId="111"/>
+    <tableColumn id="5" name="Correo Electrónico" dataDxfId="110" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla2021" displayName="Tabla2021" ref="A5:H6" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107" tableBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla2021" displayName="Tabla2021" ref="A5:H7" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" tableBorderDxfId="107">
   <tableColumns count="8">
-    <tableColumn id="1" name="Nombre" dataDxfId="105"/>
-    <tableColumn id="2" name="Teléfono 1" dataDxfId="104"/>
-    <tableColumn id="3" name="Teléfono 2" dataDxfId="103"/>
-    <tableColumn id="4" name="Fax" dataDxfId="102"/>
-    <tableColumn id="9" name="Dirección" dataDxfId="101"/>
-    <tableColumn id="10" name="Correo Electrónico 1" dataDxfId="100"/>
-    <tableColumn id="7" name="Correo Electrónico 2" dataDxfId="99"/>
-    <tableColumn id="5" name="Ciudad " dataDxfId="98"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="106"/>
+    <tableColumn id="2" name="Teléfono 1" dataDxfId="105"/>
+    <tableColumn id="3" name="Teléfono 2" dataDxfId="104"/>
+    <tableColumn id="4" name="Fax" dataDxfId="103"/>
+    <tableColumn id="9" name="Dirección" dataDxfId="102"/>
+    <tableColumn id="10" name="Correo Electrónico 1" dataDxfId="101"/>
+    <tableColumn id="7" name="Correo Electrónico 2" dataDxfId="100"/>
+    <tableColumn id="5" name="Ciudad " dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla202122" displayName="Tabla202122" ref="A5:K6" totalsRowShown="0" headerRowDxfId="97" tableBorderDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla202122" displayName="Tabla202122" ref="A5:K7" totalsRowShown="0" headerRowDxfId="98" tableBorderDxfId="97">
   <tableColumns count="11">
-    <tableColumn id="1" name="Transportadora" dataDxfId="95"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="94"/>
-    <tableColumn id="3" name="Teléfono 1" dataDxfId="93"/>
-    <tableColumn id="4" name="Teléfono 2" dataDxfId="92"/>
-    <tableColumn id="9" name="Fax" dataDxfId="91"/>
-    <tableColumn id="10" name="Dirección" dataDxfId="90"/>
-    <tableColumn id="7" name="Ciudad" dataDxfId="89"/>
-    <tableColumn id="12" name="Contacto" dataDxfId="88"/>
-    <tableColumn id="11" name="Correo Electrónico 1" dataDxfId="87"/>
-    <tableColumn id="5" name="Correo Electrónico 2" dataDxfId="86"/>
-    <tableColumn id="13" name="Concatenado" dataDxfId="85">
+    <tableColumn id="1" name="Transportadora" dataDxfId="96"/>
+    <tableColumn id="2" name="Nombre" dataDxfId="95"/>
+    <tableColumn id="3" name="Teléfono 1" dataDxfId="94"/>
+    <tableColumn id="4" name="Teléfono 2" dataDxfId="93"/>
+    <tableColumn id="9" name="Fax" dataDxfId="92"/>
+    <tableColumn id="10" name="Dirección" dataDxfId="91"/>
+    <tableColumn id="7" name="Ciudad" dataDxfId="90"/>
+    <tableColumn id="12" name="Contacto" dataDxfId="89"/>
+    <tableColumn id="11" name="Correo Electrónico 1" dataDxfId="88" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" name="Correo Electrónico 2" dataDxfId="87"/>
+    <tableColumn id="13" name="Concatenado" dataDxfId="86">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2573,77 +3268,78 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A5:C6" totalsRowShown="0" headerRowDxfId="208" dataDxfId="207" tableBorderDxfId="206">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A5:C7" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209" tableBorderDxfId="208">
   <tableColumns count="3">
-    <tableColumn id="1" name="Código del Area" dataDxfId="205"/>
-    <tableColumn id="2" name="Nombre del Area" dataDxfId="204"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="203"/>
+    <tableColumn id="1" name="Código del Area" dataDxfId="207"/>
+    <tableColumn id="2" name="Nombre del Area" dataDxfId="206"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="205"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla20212223" displayName="Tabla20212223" ref="A5:B6" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla20212223" displayName="Tabla20212223" ref="A5:B9" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Método" dataDxfId="81"/>
-    <tableColumn id="2" name="Descripción " dataDxfId="80"/>
+    <tableColumn id="1" name="Nombre del Método" dataDxfId="82"/>
+    <tableColumn id="2" name="Descripción " dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla2021222324" displayName="Tabla2021222324" ref="A5:B6" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla2021222324" displayName="Tabla2021222324" ref="A5:B7" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78">
   <tableColumns count="2">
-    <tableColumn id="1" name="Metodo de Transporte" dataDxfId="76"/>
-    <tableColumn id="2" name="Agente de la Transportadora" dataDxfId="75"/>
+    <tableColumn id="1" name="Metodo de Transporte" dataDxfId="77"/>
+    <tableColumn id="2" name="Agente de la Transportadora" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla202122232425" displayName="Tabla202122232425" ref="A5:D6" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla202122232425" displayName="Tabla202122232425" ref="A5:D6" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
   <tableColumns count="4">
-    <tableColumn id="1" name="Código" dataDxfId="71"/>
-    <tableColumn id="15" name="Nombre" dataDxfId="70"/>
-    <tableColumn id="14" name="Afecta la Pagina" dataDxfId="69"/>
-    <tableColumn id="2" name="Activa" dataDxfId="68"/>
+    <tableColumn id="1" name="Código" dataDxfId="72"/>
+    <tableColumn id="15" name="Nombre" dataDxfId="71"/>
+    <tableColumn id="14" name="Afecta la Pagina" dataDxfId="70"/>
+    <tableColumn id="2" name="Activa" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla20212223242526" displayName="Tabla20212223242526" ref="A5:A6" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla20212223242526" displayName="Tabla20212223242526" ref="A5:A8" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre" dataDxfId="64"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla2021222324252627" displayName="Tabla2021222324252627" ref="A5:A6" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla2021222324252627" displayName="Tabla2021222324252627" ref="A5:A9" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre" dataDxfId="60"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla20212223242528" displayName="Tabla20212223242528" ref="A5:Q6" totalsRowShown="0" headerRowDxfId="59" tableBorderDxfId="58">
-  <tableColumns count="17">
-    <tableColumn id="1" name="Código de Linea" dataDxfId="57"/>
-    <tableColumn id="15" name="Referencia Interna" dataDxfId="56"/>
-    <tableColumn id="14" name="Nombre del Artículo" dataDxfId="55"/>
-    <tableColumn id="19" name="Reerencia para el proveedor" dataDxfId="54"/>
-    <tableColumn id="20" name="Nombre del Artículo para el Proveedor" dataDxfId="53"/>
-    <tableColumn id="21" name="Costo Fob" dataDxfId="52"/>
-    <tableColumn id="22" name="Moneda" dataDxfId="51"/>
-    <tableColumn id="17" name="Descripción" dataDxfId="50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla20212223242528" displayName="Tabla20212223242528" ref="A5:R6" totalsRowShown="0" headerRowDxfId="60" tableBorderDxfId="59">
+  <tableColumns count="18">
+    <tableColumn id="1" name="Código de Linea" dataDxfId="58"/>
+    <tableColumn id="15" name="Referencia Interna" dataDxfId="57"/>
+    <tableColumn id="14" name="Nombre del Artículo" dataDxfId="56"/>
+    <tableColumn id="19" name="Reerencia para el proveedor" dataDxfId="55"/>
+    <tableColumn id="20" name="Nombre del Artículo para el Proveedor" dataDxfId="54"/>
+    <tableColumn id="21" name="Costo Fob" dataDxfId="53"/>
+    <tableColumn id="22" name="Moneda" dataDxfId="52"/>
+    <tableColumn id="17" name="Descripción" dataDxfId="51"/>
+    <tableColumn id="2" name="Inventario Externo" dataDxfId="50"/>
     <tableColumn id="18" name="Costo Cif" dataDxfId="49"/>
     <tableColumn id="27" name="Volumen" dataDxfId="48"/>
     <tableColumn id="28" name="Peso" dataDxfId="47"/>
@@ -2661,7 +3357,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla20212223242529" displayName="Tabla20212223242529" ref="A5:B6" insertRow="1" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla20212223242529" displayName="Tabla20212223242529" ref="A5:B6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <tableColumns count="2">
     <tableColumn id="1" name="Referencia Interna Artículo" dataDxfId="37"/>
     <tableColumn id="15" name="Código del Area" dataDxfId="36"/>
@@ -2701,7 +3397,7 @@
     <tableColumn id="20" name="Dirección" dataDxfId="15"/>
     <tableColumn id="21" name="Teléfono" dataDxfId="14"/>
     <tableColumn id="18" name="Fax" dataDxfId="13"/>
-    <tableColumn id="19" name="Correo Electrónico" dataDxfId="12"/>
+    <tableColumn id="19" name="Correo Electrónico" dataDxfId="12" dataCellStyle="Hipervínculo"/>
     <tableColumn id="16" name="Contacto" dataDxfId="11"/>
     <tableColumn id="17" name="Ciudad" dataDxfId="10"/>
   </tableColumns>
@@ -2720,17 +3416,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A5:B6" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201" tableBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A5:B7" totalsRowShown="0" headerRowDxfId="204" dataDxfId="203" tableBorderDxfId="202">
   <tableColumns count="2">
-    <tableColumn id="1" name="Actividad" dataDxfId="199"/>
-    <tableColumn id="2" name="Area" dataDxfId="198"/>
+    <tableColumn id="1" name="Actividad" dataDxfId="201"/>
+    <tableColumn id="2" name="Area" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla20212223242533" displayName="Tabla20212223242533" ref="A5:B6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla20212223242533" displayName="Tabla20212223242533" ref="A5:B9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <tableColumns count="2">
     <tableColumn id="1" name="Nombre del Método" dataDxfId="1"/>
     <tableColumn id="15" name="Descripción" dataDxfId="0"/>
@@ -2740,62 +3436,63 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A5:B6" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" tableBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A5:B9" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198" tableBorderDxfId="197">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="194"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="193"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="196"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="195"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A5:B6" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191" tableBorderDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A5:B7" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193" tableBorderDxfId="192">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Tipo de Ajuste" dataDxfId="189"/>
-    <tableColumn id="2" name="Afectación sobre el Inventario" dataDxfId="188"/>
+    <tableColumn id="1" name="Nombre del Tipo de Ajuste" dataDxfId="191"/>
+    <tableColumn id="2" name="Afectación sobre el Inventario" dataDxfId="190"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A5:B6" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186" tableBorderDxfId="185">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Tipo de Documento" dataDxfId="184"/>
-    <tableColumn id="2" name="Nombre del Tipo de Alarma" dataDxfId="183"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A5:C8" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" tableBorderDxfId="187">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tipo de Documento" dataDxfId="186"/>
+    <tableColumn id="2" name="Nombre del Tipo de Alarma" dataDxfId="185"/>
+    <tableColumn id="3" name="Descripcion" dataDxfId="184"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A5:B6" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181" tableBorderDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A5:B7" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182" tableBorderDxfId="181">
   <tableColumns count="2">
-    <tableColumn id="1" name="Tipo de Alarma" dataDxfId="179"/>
-    <tableColumn id="2" name="Mensaje" dataDxfId="178"/>
+    <tableColumn id="1" name="Tipo de Alarma" dataDxfId="180"/>
+    <tableColumn id="2" name="Mensaje" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A5:C6" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176" tableBorderDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A5:C8" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177" tableBorderDxfId="176">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="174"/>
-    <tableColumn id="2" name="Tipo de Documento" dataDxfId="173"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="172"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="175"/>
+    <tableColumn id="2" name="Tipo de Documento" dataDxfId="174"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="173"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla18" displayName="Tabla18" ref="A5:C6" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170" tableBorderDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla18" displayName="Tabla18" ref="A5:C8" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171" tableBorderDxfId="170">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="168"/>
-    <tableColumn id="2" name="Tipo de Documento" dataDxfId="167"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="166"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="169"/>
+    <tableColumn id="2" name="Tipo de Documento" dataDxfId="168"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3091,7 +3788,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,96 +3812,96 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -3275,58 +3972,58 @@
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
     </row>
     <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="52"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
     </row>
     <row r="12" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3346,11 +4043,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3360,18 +4057,18 @@
     <col min="3" max="3" width="24.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="1.85546875" style="15" customWidth="1"/>
     <col min="5" max="8" width="11.42578125" style="15"/>
-    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="15"/>
+    <col min="9" max="14" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -3379,15 +4076,47 @@
         <v>3</v>
       </c>
       <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -3396,7 +4125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
@@ -3407,17 +4136,76 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = '",B6,"')")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
+        <v>'Error en cantidades',@IDDOCUMENT,NULL</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido') insert into modification_reasons (MODIFICATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Error en cantidades',@IDDOCUMENT,NULL)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="I7" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7:P8" si="0">CONCATENATE("DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = '",B7,"')")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden')</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
+        <v>'Eliminar Articulos',@IDDOCUMENT,NULL</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden') insert into modification_reasons (MODIFICATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Eliminar Articulos',@IDDOCUMENT,NULL)
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva')</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cambio de vencimiento',@IDDOCUMENT,NULL</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva') insert into modification_reasons (MODIFICATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Cambio de vencimiento',@IDDOCUMENT,NULL)
+GO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I9" s="15" t="s">
         <v>43</v>
       </c>
@@ -3437,38 +4225,72 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.85546875" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="7" width="11.42578125" style="15"/>
+    <col min="8" max="16" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -3476,13 +4298,59 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
+        <v>'Falta de Articulos',NULL</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into close_customer_order_reasons (CLOSE_REASON_NAME, CLOSE_REASON_NOTES) values  ('Falta de Articulos',NULL)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
+        <v>'Solicitud del Cliente',NULL</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into close_customer_order_reasons (CLOSE_REASON_NAME, CLOSE_REASON_NOTES) values  ('Solicitud del Cliente',NULL)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Error en Pedido',NULL</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into close_customer_order_reasons (CLOSE_REASON_NAME, CLOSE_REASON_NOTES) values  ('Error en Pedido',NULL)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R9" s="53"/>
+      <c r="T9" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3494,11 +4362,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3506,17 +4374,19 @@
     <col min="1" max="1" width="23.42578125" style="23" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="2" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="6" width="11.42578125" style="15"/>
+    <col min="7" max="16" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -3524,13 +4394,45 @@
         <v>3</v>
       </c>
       <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -3539,7 +4441,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>52</v>
       </c>
@@ -3548,21 +4450,41 @@
       </c>
       <c r="C5" s="18"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2)</f>
+        <v>'Colombia','CO'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into countries (COUNTRY_NAME, COUNTRY_CODE) values  ('Colombia','CO')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>110</v>
       </c>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2)</f>
+        <v>'Estados Unidos','USA'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7" si="0">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into countries (COUNTRY_NAME, COUNTRY_CODE) values  ('Estados Unidos','USA')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R8" s="53"/>
+      <c r="T8" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3574,11 +4496,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,17 +4508,19 @@
     <col min="1" max="1" width="27" style="23" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="6" width="11.42578125" style="15"/>
+    <col min="7" max="14" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -3604,22 +4528,54 @@
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="T3" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>55</v>
       </c>
@@ -3629,8 +4585,19 @@
       <c r="C5" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>62</v>
       </c>
@@ -3641,8 +4608,21 @@
         <f>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</f>
         <v>CO-Cundinamarca</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = '",B6,"')")</f>
+        <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'CO')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDCOUNTRY")</f>
+        <v>'Cundinamarca',@IDCOUNTRY</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'CO') insert into departments (DEPARTMENT_NAME, COUNTRY_ID) values  ('Cundinamarca',@IDCOUNTRY)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>82</v>
       </c>
@@ -3653,8 +4633,21 @@
         <f>IF(B7&lt;&gt;"",IF(A7&lt;&gt;"",CONCATENATE(B7,"-",A7),""),"")</f>
         <v>CO-Antioquia</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7:P8" si="0">CONCATENATE("DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = '",B7,"')")</f>
+        <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'CO')</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDCOUNTRY")</f>
+        <v>'Antioquia',@IDCOUNTRY</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'CO') insert into departments (DEPARTMENT_NAME, COUNTRY_ID) values  ('Antioquia',@IDCOUNTRY)
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>111</v>
       </c>
@@ -3664,6 +4657,19 @@
       <c r="C8" t="str">
         <f>IF(B8&lt;&gt;"",IF(A8&lt;&gt;"",CONCATENATE(B8,"-",A8),""),"")</f>
         <v>USA-Florida</v>
+      </c>
+      <c r="P8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'USA')</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>'Florida',@IDCOUNTRY</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'USA') insert into departments (DEPARTMENT_NAME, COUNTRY_ID) values  ('Florida',@IDCOUNTRY)
+GO</v>
       </c>
     </row>
   </sheetData>
@@ -3688,11 +4694,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3700,17 +4706,19 @@
     <col min="1" max="1" width="22.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="21" style="23" customWidth="1"/>
     <col min="3" max="3" width="24" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="5" width="11.42578125" style="15"/>
+    <col min="6" max="14" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -3718,22 +4726,54 @@
         <v>3</v>
       </c>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
@@ -3744,7 +4784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>91</v>
       </c>
@@ -3755,8 +4795,21 @@
         <f>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</f>
         <v>CO-Cundinamarca-Bogota</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = '",B6,"')")</f>
+        <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'CO-Cundinamarca')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDDEPARTAMENT")</f>
+        <v>'Bogota',@IDDEPARTAMENT</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'CO-Cundinamarca') insert into cities (CITY_NAME, DEPARTMENT_ID) values  ('Bogota',@IDDEPARTAMENT)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>81</v>
       </c>
@@ -3767,8 +4820,21 @@
         <f>IF(B7&lt;&gt;"",IF(A7&lt;&gt;"",CONCATENATE(B7,"-",A7),""),"")</f>
         <v>CO-Cundinamarca-Chia</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7:P8" si="0">CONCATENATE("DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = '",B7,"')")</f>
+        <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'CO-Cundinamarca')</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDDEPARTAMENT")</f>
+        <v>'Chia',@IDDEPARTAMENT</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'CO-Cundinamarca') insert into cities (CITY_NAME, DEPARTMENT_ID) values  ('Chia',@IDDEPARTAMENT)
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>112</v>
       </c>
@@ -3778,6 +4844,19 @@
       <c r="C8" s="14" t="str">
         <f>IF(B8&lt;&gt;"",IF(A8&lt;&gt;"",CONCATENATE(B8,"-",A8),""),"")</f>
         <v>USA-Florida-Miami</v>
+      </c>
+      <c r="P8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'USA-Florida')</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>'Miami',@IDDEPARTAMENT</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'USA-Florida') insert into cities (CITY_NAME, DEPARTMENT_ID) values  ('Miami',@IDDEPARTAMENT)
+GO</v>
       </c>
     </row>
   </sheetData>
@@ -3802,11 +4881,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,28 +4893,62 @@
     <col min="1" max="1" width="24.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="24" style="23" customWidth="1"/>
     <col min="3" max="3" width="2.28515625" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="6" width="11.42578125" style="15"/>
+    <col min="7" max="16" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>64</v>
       </c>
@@ -3843,7 +4956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>65</v>
       </c>
@@ -3851,12 +4964,36 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>115</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2)</f>
+        <v>'CC','Cédula de Ciudadania'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into identity_types (IDENTITY_TYPE_CODE, IDENTITY_TYPE_NAME) values  ('CC','Cédula de Ciudadania')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2)</f>
+        <v>'NIT','Nit Empresa'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7" si="0">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into identity_types (IDENTITY_TYPE_CODE, IDENTITY_TYPE_NAME) values  ('NIT','Nit Empresa')</v>
       </c>
     </row>
   </sheetData>
@@ -3869,11 +5006,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3886,12 +5023,14 @@
     <col min="9" max="9" width="21.85546875" style="23" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="2.42578125" style="15" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="15"/>
-    <col min="14" max="14" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="15"/>
+    <col min="12" max="12" width="11.42578125" style="15"/>
+    <col min="13" max="13" width="11.42578125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" style="15" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>68</v>
       </c>
@@ -3905,7 +5044,7 @@
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -3932,8 +5071,29 @@
       <c r="J2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36" t="s">
@@ -3950,8 +5110,19 @@
       <c r="J3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>87</v>
       </c>
@@ -3977,7 +5148,7 @@
       </c>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>69</v>
       </c>
@@ -4008,32 +5179,194 @@
       <c r="J5" s="32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="N6" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  '",C6,"')")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT')</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",H6,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'USA-Florida-Miami')</v>
+      </c>
+      <c r="Q6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISACTIVE BIT = (CASE WHEN '",J6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D6,$W$2,$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I6,$W$2,$X$2,"@ISACTIVE")</f>
+        <v>'Satelite Mugs','Proplasticos',@IDIDENTTYPE,'123458','3007854516',NULL,'mugs@gmail.com',@IDCITY,'Fulanito',@ISACTIVE</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(O6," ",Q6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT') DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'USA-Florida-Miami') insert into process_satellites (PROCESS_SATELLITE_NAME, PROCESS_SATELLITE_ADDRESS, IDENTITY_TYPE_ID, IDENTITY_NUMBER, PHONE, FAX, EMAIL, CITY_ID, LEGAL_REPRESENTATIVE, IS_ACTIVE) values  ('Satelite Mugs','Proplasticos',@IDIDENTTYPE,'123458','3007854516',NULL,'mugs@gmail.com',@IDCITY,'Fulanito',@ISACTIVE)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="N7" s="15" t="s">
         <v>86</v>
       </c>
+      <c r="O7" s="53" t="str">
+        <f t="shared" ref="O7:O8" si="0">CONCATENATE("DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  '",C7,"')")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT')</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7:P8" si="1">CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",H7,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia')</v>
+      </c>
+      <c r="Q7" s="53" t="str">
+        <f t="shared" ref="Q7:Q8" si="2">CONCATENATE("DECLARE @ISACTIVE BIT = (CASE WHEN '",J7,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="3">CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D7,$W$2,$X$2,$W$2,E7,$W$2,$X$2,IF(LEN(F7)&gt;0,CONCATENATE($W$2,F7,$W$2),$Z$2),$X$2,IF(LEN(G7)&gt;0,CONCATENATE($W$2,G7,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I7,$W$2,$X$2,"@ISACTIVE")</f>
+        <v>'Planta','Proplasticos',@IDIDENTTYPE,'568745','3016254578',NULL,'planta@catalogospromocionales.com',@IDCITY,'Gustavo Ramirez',@ISACTIVE</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="4">CONCATENATE(O7," ",Q7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT') DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into process_satellites (PROCESS_SATELLITE_NAME, PROCESS_SATELLITE_ADDRESS, IDENTITY_TYPE_ID, IDENTITY_NUMBER, PHONE, FAX, EMAIL, CITY_ID, LEGAL_REPRESENTATIVE, IS_ACTIVE) values  ('Planta','Proplasticos',@IDIDENTTYPE,'568745','3016254578',NULL,'planta@catalogospromocionales.com',@IDCITY,'Gustavo Ramirez',@ISACTIVE)
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'CC')</v>
+      </c>
+      <c r="P8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Bogota')</v>
+      </c>
+      <c r="Q8" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v>'Etipress S.A','Cra 39 B nº 17-98',@IDIDENTTYPE,'23658','3142458963',NULL,'etipress_info@etipress.com.co',@IDCITY,'Perencejo',@ISACTIVE</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="4"/>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'CC') DECLARE @ISACTIVE BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Bogota') insert into process_satellites (PROCESS_SATELLITE_NAME, PROCESS_SATELLITE_ADDRESS, IDENTITY_TYPE_ID, IDENTITY_NUMBER, PHONE, FAX, EMAIL, CITY_ID, LEGAL_REPRESENTATIVE, IS_ACTIVE) values  ('Etipress S.A','Cra 39 B nº 17-98',@IDIDENTTYPE,'23658','3142458963',NULL,'etipress_info@etipress.com.co',@IDCITY,'Perencejo',@ISACTIVE)
+GO</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="53"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J8">
       <formula1>$N$6:$N$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:I7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:I9 H10:H1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4042,13 +5375,13 @@
           <x14:formula1>
             <xm:f>'Tipos de Identificación'!$A$6:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>C6:C8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Ciudades!$C$6:$C$99998</xm:f>
           </x14:formula1>
-          <xm:sqref>H6</xm:sqref>
+          <xm:sqref>H6:H8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4058,11 +5391,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,7 +5403,9 @@
     <col min="1" max="1" width="25.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="23" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" style="23" customWidth="1"/>
     <col min="10" max="10" width="24" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.140625" style="23" customWidth="1"/>
@@ -4079,7 +5414,7 @@
     <col min="14" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>90</v>
       </c>
@@ -4094,7 +5429,7 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -4122,8 +5457,29 @@
       <c r="K2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -4141,8 +5497,19 @@
       <c r="K3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>88</v>
@@ -4171,7 +5538,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>71</v>
       </c>
@@ -4208,33 +5575,161 @@
       <c r="L5" s="13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="L6" s="4" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
-        <v/>
+        <v>CC-79872389</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  '",C6,"')")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'Andres Diaz')</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",H6,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '3008987553')</v>
+      </c>
+      <c r="Q6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISACTIVE BIT = (CASE WHEN '",J6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'CO-Cundinamarca-Bogota' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D6,$W$2,$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I6,$W$2,$X$2,"@ISACTIVE")</f>
+        <v>'CC','79872389',@IDIDENTTYPE,'3008987553','3004587458',NULL,'calle 4a # 29 - 25',@IDCITY,'ardc2440@gmail.com;paolaflorezp@gmail.com',@ISACTIVE</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(O6," ",Q6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'Andres Diaz') DECLARE @ISACTIVE BIT = (CASE WHEN 'CO-Cundinamarca-Bogota' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '3008987553') insert into customers (IDENTITY_TYPE_ID, IDENTITY_NUMBER, CUSTOMER_NAME, PHONE1, PHONE2, FAX, CUSTOMER_ADDRESS, CELL_PHONE, EMAIL, CITY_ID, SEND_EMAIL) values  ('CC','79872389',@IDIDENTTYPE,'3008987553','3004587458',NULL,'calle 4a # 29 - 25',@IDCITY,'ardc2440@gmail.com;paolaflorezp@gmail.com',@ISACTIVE)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f>IF(A7&lt;&gt;"",IF(B7&lt;&gt;"",CONCATENATE(A7,"-",B7),""),"")</f>
+        <v>CC-35427339</v>
+      </c>
       <c r="M7" s="15" t="s">
         <v>86</v>
       </c>
+      <c r="O7" s="53" t="str">
+        <f t="shared" ref="O7" si="0">CONCATENATE("DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  '",C7,"')")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'Paola Florez')</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7" si="1">CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",H7,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '3014296649')</v>
+      </c>
+      <c r="Q7" s="53" t="str">
+        <f t="shared" ref="Q7" si="2">CONCATENATE("DECLARE @ISACTIVE BIT = (CASE WHEN '",J7,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'CO-Cundinamarca-Chia' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7" si="3">CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D7,$W$2,$X$2,$W$2,E7,$W$2,$X$2,IF(LEN(F7)&gt;0,CONCATENATE($W$2,F7,$W$2),$Z$2),$X$2,IF(LEN(G7)&gt;0,CONCATENATE($W$2,G7,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I7,$W$2,$X$2,"@ISACTIVE")</f>
+        <v>'CC','35427339',@IDIDENTTYPE,'3542658925','3112457856',NULL,'Carrera 2 b # 11 - 25',@IDCITY,'paolaflorezp@gmail.com',@ISACTIVE</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7" si="4">CONCATENATE(O7," ",Q7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'Paola Florez') DECLARE @ISACTIVE BIT = (CASE WHEN 'CO-Cundinamarca-Chia' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '3014296649') insert into customers (IDENTITY_TYPE_ID, IDENTITY_NUMBER, CUSTOMER_NAME, PHONE1, PHONE2, FAX, CUSTOMER_ADDRESS, CELL_PHONE, EMAIL, CITY_ID, SEND_EMAIL) values  ('CC','35427339',@IDIDENTTYPE,'3542658925','3112457856',NULL,'Carrera 2 b # 11 - 25',@IDCITY,'paolaflorezp@gmail.com',@ISACTIVE)
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="T8" s="67"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K1048576">
       <formula1>$M$6:$M$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1"/>
+    <hyperlink ref="I7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4243,13 +5738,13 @@
           <x14:formula1>
             <xm:f>'Tipos de Identificación'!$A$6:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>A6</xm:sqref>
+          <xm:sqref>A6:A7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Ciudades!$C$6:$C$99998</xm:f>
           </x14:formula1>
-          <xm:sqref>J6</xm:sqref>
+          <xm:sqref>J6:J7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4259,11 +5754,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,11 +5766,13 @@
     <col min="1" max="1" width="26.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="22" style="23" customWidth="1"/>
     <col min="3" max="4" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="15"/>
+    <col min="5" max="5" width="23.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="15"/>
+    <col min="7" max="14" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>102</v>
       </c>
@@ -4284,7 +5781,7 @@
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -4300,8 +5797,29 @@
       <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -4309,8 +5827,19 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>17</v>
@@ -4325,7 +5854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>103</v>
       </c>
@@ -4342,10 +5871,76 @@
         <v>106</v>
       </c>
     </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = '",A6,"')")</f>
+        <v>DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = 'CC-79872389')</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@IDCUSTOMER",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,$W$2,D6,$W$2,$X$2,IF(LEN(E6)&gt;0,CONCATENATE($W$2,E6,$W$2),$Z$2))</f>
+        <v>@IDCUSTOMER,'andres diaz','propietario','3008987553','ardc2440@gmail.com'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = 'CC-79872389') insert into customer_contacts (CUSTOMER_ID, CUSTOMER_CONTACT_NAME, TITLE, PHONE, EMAIL) values  (@IDCUSTOMER,'andres diaz','propietario','3008987553','ardc2440@gmail.com')
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = '",A7,"')")</f>
+        <v>DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = 'CC-35427339')</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE("@IDCUSTOMER",$X$2,$W$2,B7,$W$2,$X$2,$W$2,C7,$W$2,$X$2,$W$2,D7,$W$2,$X$2,IF(LEN(E7)&gt;0,CONCATENATE($W$2,E7,$W$2),$Z$2))</f>
+        <v>@IDCUSTOMER,'Paola Florez','Gerente','3014662769','paolaflorezp@gmail.com'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f>CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = 'CC-35427339') insert into customer_contacts (CUSTOMER_ID, CUSTOMER_CONTACT_NAME, TITLE, PHONE, EMAIL) values  (@IDCUSTOMER,'Paola Florez','Gerente','3014662769','paolaflorezp@gmail.com')
+GO</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4354,7 +5949,7 @@
           <x14:formula1>
             <xm:f>Clientes!$L$6:$L$100000</xm:f>
           </x14:formula1>
-          <xm:sqref>A6</xm:sqref>
+          <xm:sqref>A6:A7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4364,11 +5959,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,11 +5973,13 @@
     <col min="3" max="4" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="23" customWidth="1"/>
     <col min="6" max="7" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="15"/>
+    <col min="8" max="8" width="23.140625" style="23" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="15"/>
+    <col min="11" max="15" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>118</v>
       </c>
@@ -4394,7 +5991,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -4411,8 +6008,29 @@
       <c r="H2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -4423,8 +6041,19 @@
       <c r="H3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
@@ -4448,7 +6077,7 @@
       </c>
       <c r="H4" s="31"/>
     </row>
-    <row r="5" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>92</v>
       </c>
@@ -4474,10 +6103,81 @@
         <v>120</v>
       </c>
     </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",H6,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia')</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2),$X$2,IF(LEN(D6)&gt;0,CONCATENATE($W$2,D6,$W$2),$Z$2),$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,"@IDCITY")</f>
+        <v>'trasportes fusa','745585','22222','5456456452','calle 15 parque internacional central','InterTransMar@gmail.com',NULL,@IDCITY</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into forwarders (FORWARDER_NAME, PHONE1, PHONE2, FAX, FORWARDER_ADDRESS, MAIL1, MAIL2, CITY_ID) values  ('trasportes fusa','745585','22222','5456456452','calle 15 parque internacional central','InterTransMar@gmail.com',NULL,@IDCITY)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",H7,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'USA-Florida-Miami')</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2),$X$2,IF(LEN(D7)&gt;0,CONCATENATE($W$2,D7,$W$2),$Z$2),$X$2,$W$2,E7,$W$2,$X$2,IF(LEN(F7)&gt;0,CONCATENATE($W$2,F7,$W$2),$Z$2),$X$2,IF(LEN(G7)&gt;0,CONCATENATE($W$2,G7,$W$2),$Z$2),$X$2,"@IDCITY")</f>
+        <v>'International Trans Mar','745585',NULL,NULL,'la casona local 1234',NULL,'mi_correo@correo.com',@IDCITY</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f>CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'USA-Florida-Miami') insert into forwarders (FORWARDER_NAME, PHONE1, PHONE2, FAX, FORWARDER_ADDRESS, MAIL1, MAIL2, CITY_ID) values  ('International Trans Mar','745585',NULL,NULL,'la casona local 1234',NULL,'mi_correo@correo.com',@IDCITY)
+GO</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4486,7 +6186,7 @@
           <x14:formula1>
             <xm:f>Ciudades!$C$6:$C$99998</xm:f>
           </x14:formula1>
-          <xm:sqref>H6</xm:sqref>
+          <xm:sqref>H6:H7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4496,11 +6196,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,30 +6209,89 @@
     <col min="2" max="2" width="1.7109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="15"/>
     <col min="4" max="4" width="1.28515625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="5" max="6" width="9.140625" style="15"/>
+    <col min="7" max="7" width="23.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="17" width="9.140625" style="15" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="15" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J2" s="50"/>
+      <c r="T2" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2)</f>
+        <v>'Logo Pendiente'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into activity_types (ACTIVITY_TYPE_NAME) values  ('Logo Pendiente')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE($W$2,A7,$W$2)</f>
+        <v>'Pedido Incompleto'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into activity_types (ACTIVITY_TYPE_NAME) values  ('Pedido Incompleto')</v>
       </c>
     </row>
   </sheetData>
@@ -4545,11 +6304,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4558,12 +6317,12 @@
     <col min="2" max="5" width="16.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.85546875" style="23" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="23" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>118</v>
       </c>
@@ -4578,7 +6337,7 @@
       <c r="J1" s="33"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -4602,8 +6361,29 @@
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -4619,8 +6399,19 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
       <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>17</v>
@@ -4649,7 +6440,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>121</v>
       </c>
@@ -4684,16 +6475,110 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>300</v>
+      </c>
       <c r="K6" s="15" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
-        <v/>
+        <v>trasportes fusa-Carmelita la nita</v>
+      </c>
+      <c r="N6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = '",A6,"')")</f>
+        <v>DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = 'trasportes fusa')</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",G6,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Bogota')</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@IDFORWARDER",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,IF(LEN(D6)&gt;0,CONCATENATE($W$2,D6,$W$2),$Z$2),$X$2,IF(LEN(E6)&gt;0,CONCATENATE($W$2,E6,$W$2),$Z$2),$X$2,$W$2,F6,$W$2,$X$2,"@IDCITY",$X$2,$W$2,H6,$W$2,$X$2,IF(LEN(I6)&gt;0,CONCATENATE($W$2,I6,$W$2),$Z$2),$X$2,IF(LEN(J6)&gt;0,CONCATENATE($W$2,J6,$W$2),$Z$2))</f>
+        <v>@IDFORWARDER,'Carmelita la nita','5454548787','21352124',NULL,'Calle 40 # 20 - 23',@IDCITY,'Camela Nita Lopez','carmela@fusa.com',NULL</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = 'trasportes fusa') DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Bogota') insert into forwarder_agents (FORWARDER_ID, FORWARDER_AGENT_NAME, PHONE1, PHONE2, FAX, FORWARDER_AGENT_ADDRESS, CITY_ID, CONTACT, EMAIL1, EMAIL2) values  (@IDFORWARDER,'Carmelita la nita','5454548787','21352124',NULL,'Calle 40 # 20 - 23',@IDCITY,'Camela Nita Lopez','carmela@fusa.com',NULL)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="K7" s="15" t="str">
+        <f>IF(A7&lt;&gt;"",IF(B7&lt;&gt;"",CONCATENATE(A7,"-",B7),""),"")</f>
+        <v>International Trans Mar-Transmar Colombia</v>
+      </c>
+      <c r="N7" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = '",A7,"')")</f>
+        <v>DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = 'International Trans Mar')</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",G7,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia')</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE("@IDFORWARDER",$X$2,$W$2,B7,$W$2,$X$2,$W$2,C7,$W$2,$X$2,IF(LEN(D7)&gt;0,CONCATENATE($W$2,D7,$W$2),$Z$2),$X$2,IF(LEN(E7)&gt;0,CONCATENATE($W$2,E7,$W$2),$Z$2),$X$2,$W$2,F7,$W$2,$X$2,"@IDCITY",$X$2,$W$2,H7,$W$2,$X$2,IF(LEN(I7)&gt;0,CONCATENATE($W$2,I7,$W$2),$Z$2),$X$2,IF(LEN(J7)&gt;0,CONCATENATE($W$2,J7,$W$2),$Z$2))</f>
+        <v>@IDFORWARDER,'Transmar Colombia','54252262','875412363',NULL,'Calle 28 # 12 - 35',@IDCITY,'Jose Lopez',NULL,'Lopez.jose@transmar.com'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f>CONCATENATE(N7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = 'International Trans Mar') DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into forwarder_agents (FORWARDER_ID, FORWARDER_AGENT_NAME, PHONE1, PHONE2, FAX, FORWARDER_AGENT_ADDRESS, CITY_ID, CONTACT, EMAIL1, EMAIL2) values  (@IDFORWARDER,'Transmar Colombia','54252262','875412363',NULL,'Calle 28 # 12 - 35',@IDCITY,'Jose Lopez',NULL,'Lopez.jose@transmar.com')
+GO</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4702,13 +6587,13 @@
           <x14:formula1>
             <xm:f>Ciudades!$C$6:$C$99998</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:I6</xm:sqref>
+          <xm:sqref>G6:G7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Transportadoras!$A$6:$A$1000</xm:f>
+            <xm:f>Transportadoras!$A$6:$A$1001</xm:f>
           </x14:formula1>
-          <xm:sqref>A6</xm:sqref>
+          <xm:sqref>A6:A7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4718,39 +6603,73 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="23" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="15"/>
+    <col min="3" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="15" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -4758,12 +6677,76 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2)</f>
+        <v>'Aereo','Transporte Aéreo'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Aereo','Transporte Aéreo')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R9" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2)</f>
+        <v>'Maritimo','Transporte Marítimo'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T9" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Maritimo','Transporte Marítimo')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Combinado','Transporte Aéreo y Marítimo'</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Combinado','Transporte Aéreo y Marítimo')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="R9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Directo','Entrega local'</v>
+      </c>
+      <c r="T9" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Directo','Entrega local')</v>
       </c>
     </row>
   </sheetData>
@@ -4776,52 +6759,138 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="15"/>
+    <col min="2" max="2" width="39.5703125" style="23" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="11" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>127</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="N6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = '",A6,"')")</f>
+        <v>DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = 'Aereo')</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = '",B6,"')")</f>
+        <v>DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = 'trasportes fusa-Carmelita la nita')</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@SHIPMENTMETHODID",$X$2,"@FORWARDERAGENTID")</f>
+        <v>@SHIPMENTMETHODID,@FORWARDERAGENTID</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = 'Aereo') DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = 'trasportes fusa-Carmelita la nita') insert into shipment_forwarder_agent_methods (SHIPMENT_METHOD_ID, FORWARDER_AGENT_ID) values  (@SHIPMENTMETHODID,@FORWARDERAGENTID)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="N7" s="53" t="str">
+        <f>CONCATENATE("DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = '",A7,"')")</f>
+        <v>DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = 'Maritimo')</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f>CONCATENATE("DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = '",B7,"')")</f>
+        <v>DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = 'International Trans Mar-Transmar Colombia')</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE("@SHIPMENTMETHODID",$X$2,"@FORWARDERAGENTID")</f>
+        <v>@SHIPMENTMETHODID,@FORWARDERAGENTID</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f>CONCATENATE(N7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = 'Maritimo') DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = 'International Trans Mar-Transmar Colombia') insert into shipment_forwarder_agent_methods (SHIPMENT_METHOD_ID, FORWARDER_AGENT_ID) values  (@SHIPMENTMETHODID,@FORWARDERAGENTID)
+GO</v>
       </c>
     </row>
   </sheetData>
@@ -4836,13 +6905,13 @@
           <x14:formula1>
             <xm:f>'Agentes de Transportadora'!$K$6:$K$1000</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B6:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'Métodos de Transporte'!$A$6:$A$1000</xm:f>
+            <xm:f>'Métodos de Transporte'!$A$6:$A$1003</xm:f>
           </x14:formula1>
-          <xm:sqref>A6</xm:sqref>
+          <xm:sqref>A6:A7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4852,11 +6921,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4864,10 +6933,14 @@
     <col min="1" max="2" width="28.140625" style="23" customWidth="1"/>
     <col min="3" max="3" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="15"/>
+    <col min="5" max="5" width="11.42578125" style="15"/>
+    <col min="6" max="6" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="7" max="12" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="11.42578125" style="15" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>129</v>
       </c>
@@ -4875,7 +6948,7 @@
       <c r="C1" s="28"/>
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +6961,29 @@
       <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36" t="s">
@@ -4898,8 +6992,19 @@
       <c r="D3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -4909,7 +7014,7 @@
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>130</v>
       </c>
@@ -4923,9 +7028,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>154</v>
@@ -4935,6 +7040,23 @@
       </c>
       <c r="D6" s="23" t="s">
         <v>85</v>
+      </c>
+      <c r="N6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISDEMON BIT = (CASE WHEN '",C6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISDEMON BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISACTIVE BIT = (CASE WHEN '",D6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,"@ISDEMON",$X$2,"@ISACTIVE")</f>
+        <v>'001','Importados',@ISDEMON,@ISACTIVE</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @ISDEMON BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) insert into lines (LINE_CODE, LINE_NAME, IS_DEMON, IS_ACTIVE) values  ('001','Importados',@ISDEMON,@ISACTIVE)
+GO</v>
       </c>
     </row>
   </sheetData>
@@ -4952,41 +7074,115 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="15"/>
+    <col min="3" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="13" width="12.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2)</f>
+        <v>'EURO'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into currencies (CURRENCY_NAME) values  ('EURO')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="0">CONCATENATE($W$2,A7,$W$2)</f>
+        <v>'PESO'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into currencies (CURRENCY_NAME) values  ('PESO')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'USD'</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into currencies (CURRENCY_NAME) values  ('USD')</v>
       </c>
     </row>
   </sheetData>
@@ -4999,40 +7195,126 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="23" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="15"/>
+    <col min="2" max="5" width="11.42578125" style="15"/>
+    <col min="6" max="16" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2)</f>
+        <v>'Caja'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Caja')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="0">CONCATENATE($W$2,A7,$W$2)</f>
+        <v>'Centimetro Cúbico'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Centimetro Cúbico')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Gramo'</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Gramo')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="R9" s="53" t="str">
+        <f t="shared" ref="R9" si="2">CONCATENATE($W$2,A9,$W$2)</f>
+        <v>'Pieza'</v>
+      </c>
+      <c r="T9" s="67" t="str">
+        <f t="shared" ref="T9" si="3">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R9,$Y$2)</f>
+        <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Pieza')</v>
       </c>
     </row>
   </sheetData>
@@ -5045,11 +7327,11 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:P1048576"/>
+      <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,20 +7341,23 @@
     <col min="3" max="3" width="23.42578125" style="23" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="23" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="43" customWidth="1"/>
     <col min="7" max="7" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="14.85546875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="44" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="23" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>135</v>
       </c>
@@ -5081,19 +7366,22 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G1" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -5116,31 +7404,55 @@
         <v>3</v>
       </c>
       <c r="H2" s="34"/>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>3</v>
       </c>
+      <c r="N2" s="34"/>
       <c r="O2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="15"/>
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -5153,12 +7465,12 @@
         <v>28</v>
       </c>
       <c r="H3" s="36"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>28</v>
       </c>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
       <c r="M3" s="36" t="s">
         <v>28</v>
       </c>
@@ -5171,9 +7483,23 @@
       <c r="P3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="T3" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>5</v>
@@ -5194,23 +7520,24 @@
       <c r="H4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="K4" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="L4" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="31"/>
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
       <c r="P4" s="31"/>
-      <c r="Q4" s="15"/>
-    </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q4" s="31"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:35" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>151</v>
       </c>
@@ -5235,50 +7562,179 @@
       <c r="H5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="K5" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="L5" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="M5" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="N5" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="O5" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="P5" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="Q5" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="R5" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F6" s="44"/>
-      <c r="Q6" s="15" t="str">
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AB5" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC5" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD5" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE5" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF5" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG5" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0.12458569999999999</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="57">
+        <v>1</v>
+      </c>
+      <c r="K6" s="57">
+        <v>1</v>
+      </c>
+      <c r="L6" s="57">
+        <v>1</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="15" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
-        <v/>
+        <v>001-MI001</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(AB6," ",AC6," ",AD6," ",AE6," ",AF6," ",AG6," ",AH6," ",AI6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,AA6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @LINEID INT = (SELECT LINE_ID FROM lines WHERE LINE_CODE = '001') DECLARE @CURRENCYID INT = (SELECT CURRENCY_ID FROM currencies WHERE CURRENCY_NAME = 'PESO') DECLARE @ISEXTERNAL BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END) DECLARE @FOBID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='Caja') DECLARE @CIIFID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='Centimetro Cúbico') DECLARE @ISPRODNAL BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END) DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @ISVISIBLE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) insert into items (LINE_ID, INTERNAL_REFERENCE, ITEM_NAME, PROVIDER_REFERENCE, PROVIDER_ITEM_NAME, FOB_COST, CURRENCY_ID, NOTES, IS_EXTERNAL_INVENTORY, CIF_COST, VOLUME, WEIGHT, FOB_MEASURE_UNIT_ID, CIF_MEASURE_UNIT_ID, IS_DOMESTIC_PRODUCT, IS_ACTIVE, IS_CATALOG_VISIBLE) values  (@LINEID,'MI001','MI PRUEBA','0001 AZUL','MIPRUEBA PROV',0.1245857,@CURRENCYID,'PRUEBA',@ISEXTERNAL,1,1,1,@FOBID,@CIIFID,@ISPRODNAL,@ISACTIVE,@ISVISIBLE)
+GO</v>
+      </c>
+      <c r="AA6" s="53" t="str">
+        <f>CONCATENATE("@LINEID",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,$W$2,D6,$W$2,$X$2,$W$2,E6,$W$2,$X$2,F6,$X$2,"@CURRENCYID",$X$2,IF(LEN(H6)&gt;0,CONCATENATE($W$2,H6,$W$2),$Z$2),$X$2,"@ISEXTERNAL",$X$2,J6,$X$2,K6,$X$2,L6,$X$2,"@FOBID",$X$2,"@CIIFID",$X$2,"@ISPRODNAL",$X$2,"@ISACTIVE",$X$2,"@ISVISIBLE")</f>
+        <v>@LINEID,'MI001','MI PRUEBA','0001 AZUL','MIPRUEBA PROV',0.1245857,@CURRENCYID,'PRUEBA',@ISEXTERNAL,1,1,1,@FOBID,@CIIFID,@ISPRODNAL,@ISACTIVE,@ISVISIBLE</v>
+      </c>
+      <c r="AB6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @LINEID INT = (SELECT LINE_ID FROM lines WHERE LINE_CODE = '",A6,"')")</f>
+        <v>DECLARE @LINEID INT = (SELECT LINE_ID FROM lines WHERE LINE_CODE = '001')</v>
+      </c>
+      <c r="AC6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @CURRENCYID INT = (SELECT CURRENCY_ID FROM currencies WHERE CURRENCY_NAME = '",G6,"')")</f>
+        <v>DECLARE @CURRENCYID INT = (SELECT CURRENCY_ID FROM currencies WHERE CURRENCY_NAME = 'PESO')</v>
+      </c>
+      <c r="AD6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISEXTERNAL BIT = (CASE WHEN '",I6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISEXTERNAL BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="AE6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @FOBID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='",M6,"')")</f>
+        <v>DECLARE @FOBID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='Caja')</v>
+      </c>
+      <c r="AF6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @CIIFID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='",N6,"')")</f>
+        <v>DECLARE @CIIFID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='Centimetro Cúbico')</v>
+      </c>
+      <c r="AG6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISPRODNAL BIT = (CASE WHEN '",O6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISPRODNAL BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="AH6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISACTIVE BIT = (CASE WHEN '",P6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="AI6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISVISIBLE BIT = (CASE WHEN '",Q6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISVISIBLE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END)</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:Q1"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:P6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:Q6 I6">
       <formula1>"Si,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5287,7 +7743,7 @@
           <x14:formula1>
             <xm:f>'Unidades de Medida'!$A$6:$A$1000</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:M6</xm:sqref>
+          <xm:sqref>M6:N6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5309,53 +7765,120 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="15"/>
+    <col min="3" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="11" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>153</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '",A6,"')")</f>
+        <v>DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001')</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE(" DECLARE @AREA_ID SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = '",B6,"')")</f>
+        <v xml:space="preserve"> DECLARE @AREA_ID SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = '001')</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@ITEM_ID",$X$2,"@AREA_ID")</f>
+        <v>@ITEM_ID,@AREA_ID</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001')  DECLARE @AREA_ID SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = '001') insert into items_area (ITEM_ID, AREA_ID) values  (@ITEM_ID,@AREA_ID)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="53"/>
+      <c r="T7" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5367,15 +7890,15 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Areas!$A$6:$A$1000</xm:f>
+            <xm:f>Articulos!$R$6:$R$100000</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>A6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Articulos!$Q$6:$Q$100000</xm:f>
+            <xm:f>Areas!$A$6:$A$999</xm:f>
           </x14:formula1>
-          <xm:sqref>A6</xm:sqref>
+          <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5385,11 +7908,11 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,22 +7928,26 @@
     <col min="9" max="9" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="15"/>
+    <col min="12" max="13" width="11.42578125" style="15"/>
+    <col min="14" max="15" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="26" width="11.42578125" style="15"/>
+    <col min="27" max="27" width="9.28515625" style="15" customWidth="1"/>
+    <col min="28" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+    <row r="1" spans="1:32" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -5434,7 +7961,7 @@
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -5459,8 +7986,32 @@
       <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA2" s="53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -5475,8 +8026,19 @@
         <v>28</v>
       </c>
       <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>31</v>
@@ -5491,61 +8053,130 @@
         <v>31</v>
       </c>
       <c r="F4" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="41" t="s">
-        <v>163</v>
-      </c>
       <c r="H4" s="41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>159</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>160</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>165</v>
       </c>
       <c r="I5" s="37" t="s">
         <v>84</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="P5" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="G6" s="49">
+        <v>200</v>
+      </c>
+      <c r="H6" s="49">
+        <v>50</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="49">
+        <v>100</v>
+      </c>
       <c r="K6" s="15" t="str">
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
-        <v/>
+        <v>001-MI001-004</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '",A6,"')")</f>
+        <v>DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001')</v>
+      </c>
+      <c r="Q6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ISACTIVE BIT = (CASE WHEN '",I6,"' = 'Si' THEN 1 ELSE 0 END)")</f>
+        <v>DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END)</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@ITEM_ID",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,$W$2,D6,$W$2,$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,G6+H6,$X$2,"@ISACTIVE",$X$2,J6)</f>
+        <v>@ITEM_ID,'004','001AA','Amarillo','Amarillo',NULL,250,@ISACTIVE,100</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($AA$2," ",P6," ",Q6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),AB6," ",AD6," ",AF6,CHAR(10),"GO")</f>
+        <v>DECLARE @LOCAL SMALLINT = (SELECT WAREHOUSE_ID FROM warehouses WHERE WAREHOUSE_CODE = 1) DECLARE @FRANCA SMALLINT = (SELECT WAREHOUSE_ID FROM warehouses WHERE WAREHOUSE_CODE = 2) DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001') DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) insert into item_references (ITEM_ID, REFERENCE_CODE, PROVIDER_REFERENCE_CODE, REFERENCE_NAME, PROVIDER_REFERENCE_NAME, NOTES, INVENTORY_QUANTITY, IS_ACTIVE, ALARM_MINIMUM_QUANTITY) values  (@ITEM_ID,'004','001AA','Amarillo','Amarillo',NULL,250,@ISACTIVE,100)
+DECLARE @REFERENCE_ID INT = (SELECT REFERENCE_ID FROM item_references WHERE ITEM_ID = @ITEM_ID AND REFERENCE_CODE = '004') UPDATE references_warehouse set QUANTITY = 200 WHERE WAREHOUSE_ID = @LOCAL AND REFERENCE_ID = @REFERENCE_ID UPDATE references_warehouse set QUANTITY = 50 WHERE WAREHOUSE_ID = @FRANCA AND REFERENCE_ID = @REFERENCE_ID
+GO</v>
+      </c>
+      <c r="AB6" s="66" t="str">
+        <f>CONCATENATE("DECLARE @REFERENCE_ID INT = (SELECT REFERENCE_ID FROM item_references WHERE ITEM_ID = @ITEM_ID AND REFERENCE_CODE = '",B6,"')")</f>
+        <v>DECLARE @REFERENCE_ID INT = (SELECT REFERENCE_ID FROM item_references WHERE ITEM_ID = @ITEM_ID AND REFERENCE_CODE = '004')</v>
+      </c>
+      <c r="AD6" s="66" t="str">
+        <f>CONCATENATE("UPDATE references_warehouse set QUANTITY = ",G6," WHERE WAREHOUSE_ID = @LOCAL AND REFERENCE_ID = @REFERENCE_ID")</f>
+        <v>UPDATE references_warehouse set QUANTITY = 200 WHERE WAREHOUSE_ID = @LOCAL AND REFERENCE_ID = @REFERENCE_ID</v>
+      </c>
+      <c r="AF6" s="66" t="str">
+        <f>CONCATENATE("UPDATE references_warehouse set QUANTITY = ",H6," WHERE WAREHOUSE_ID = @FRANCA AND REFERENCE_ID = @REFERENCE_ID")</f>
+        <v>UPDATE references_warehouse set QUANTITY = 50 WHERE WAREHOUSE_ID = @FRANCA AND REFERENCE_ID = @REFERENCE_ID</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +8201,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Articulos!$Q$6:$Q$100000</xm:f>
+            <xm:f>Articulos!$R$6:$R$100000</xm:f>
           </x14:formula1>
           <xm:sqref>A6</xm:sqref>
         </x14:dataValidation>
@@ -5582,11 +8213,11 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,9 +8230,9 @@
     <col min="11" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -5613,7 +8244,7 @@
       <c r="I1" s="28"/>
       <c r="J1" s="28"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -5634,8 +8265,29 @@
       <c r="J2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -5650,8 +8302,19 @@
       <c r="J3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>88</v>
@@ -5679,7 +8342,7 @@
       </c>
       <c r="J4" s="31"/>
     </row>
-    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>71</v>
       </c>
@@ -5710,11 +8373,62 @@
       <c r="J5" s="32" t="s">
         <v>76</v>
       </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  '",A6,"')")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT')</v>
+      </c>
+      <c r="Q6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '",J6,"')")</f>
+        <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@IDIDENTTYPE",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,$W$2,D6,$W$2,$X$2,IF(LEN(E6)&gt;0,CONCATENATE($W$2,E6,$W$2),$Z$2),$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,IF(LEN(H6)&gt;0,CONCATENATE($W$2,H6,$W$2),$Z$2),$X$2,IF(LEN(I6)&gt;0,CONCATENATE($W$2,I6,$W$2),$Z$2),$X$2,"@IDCITY")</f>
+        <v>@IDIDENTTYPE,'41401793','CARDASOC','Cardenas Asociados','calle 1 a No. 20 -34','300 4525212',NULL,'info@cardasociados.com.co','Francelina Cardenas',@IDCITY</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",Q6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT') DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into providers (IDENTITY_TYPE_ID, IDENTITY_NUMBER, PROVIDER_CODE, PROVIDER_NAME, PROVIDER_ADDRESS, PHONE, FAX, EMAIL, CONTACT_PERSON, CITY_ID) values  (@IDIDENTTYPE,'41401793','CARDASOC','Cardenas Asociados','calle 1 a No. 20 -34','300 4525212',NULL,'info@cardasociados.com.co','Francelina Cardenas',@IDCITY)
+GO</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5739,11 +8453,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,30 +8466,68 @@
     <col min="2" max="2" width="23.5703125" style="31" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" style="31" customWidth="1"/>
     <col min="4" max="4" width="1.28515625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="15"/>
+    <col min="5" max="7" width="11.42578125" style="15"/>
+    <col min="8" max="8" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="9" max="17" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -5786,7 +8538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>15</v>
       </c>
@@ -5795,6 +8547,41 @@
       </c>
       <c r="C5" s="32" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
+        <v>'001','Despachos',NULL</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into areas (AREA_CODE,AREA_NAME,DESCRIPTION) values  ('001','Despachos',NULL)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
+        <v>'005','Marca Nacional','Servicio al cliente nacional'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into areas (AREA_CODE,AREA_NAME,DESCRIPTION) values  ('005','Marca Nacional','Servicio al cliente nacional')</v>
       </c>
     </row>
   </sheetData>
@@ -5807,53 +8594,120 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="23" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="15"/>
+    <col min="3" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="12" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>157</v>
-      </c>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="N6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @PROVIDERID INT = (SELECT PROVIDER_ID FROM providers WHERE PROVIDER_CODE = '",A6,"')")</f>
+        <v>DECLARE @PROVIDERID INT = (SELECT PROVIDER_ID FROM providers WHERE PROVIDER_CODE = 'CARDASOC')</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @REFERENCEID INT = (SELECT REFERENCE_ID FROM item_references a JOIN items b ON b.ITEM_ID = a.ITEM_ID JOIN lines c ON c.LINE_ID = b.LINE_ID WHERE c.LINE_CODE+'-'+b.INTERNAL_REFERENCE +'-'+a.REFERENCE_CODE = '",B6,"')")</f>
+        <v>DECLARE @REFERENCEID INT = (SELECT REFERENCE_ID FROM item_references a JOIN items b ON b.ITEM_ID = a.ITEM_ID JOIN lines c ON c.LINE_ID = b.LINE_ID WHERE c.LINE_CODE+'-'+b.INTERNAL_REFERENCE +'-'+a.REFERENCE_CODE = '001-MI001-004')</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@REFERENCEID",$X$2,"@PROVIDERID")</f>
+        <v>@REFERENCEID,@PROVIDERID</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @PROVIDERID INT = (SELECT PROVIDER_ID FROM providers WHERE PROVIDER_CODE = 'CARDASOC') DECLARE @REFERENCEID INT = (SELECT REFERENCE_ID FROM item_references a JOIN items b ON b.ITEM_ID = a.ITEM_ID JOIN lines c ON c.LINE_ID = b.LINE_ID WHERE c.LINE_CODE+'-'+b.INTERNAL_REFERENCE +'-'+a.REFERENCE_CODE = '001-MI001-004') insert into provider_references (REFERENCE_ID, PROVIDER_ID) values  (@REFERENCEID,@PROVIDERID)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="53"/>
+      <c r="T7" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5883,37 +8737,71 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="23" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="15"/>
+    <col min="3" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="15" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -5921,12 +8809,64 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>124</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(LEN(B6)&gt;0,CONCATENATE($W$2,B6,$W$2),$Z$2))</f>
+        <v>'Coordinadora',NULL</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Coordinadora',NULL)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R9" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,IF(LEN(B7)&gt;0,CONCATENATE($W$2,B7,$W$2),$Z$2))</f>
+        <v>'Servientrega',NULL</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T9" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Servientrega',NULL)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Redetrans',NULL</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Redetrans',NULL)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="R9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Directo',NULL</v>
+      </c>
+      <c r="T9" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Directo',NULL)</v>
       </c>
     </row>
   </sheetData>
@@ -5939,11 +8879,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,41 +8891,127 @@
     <col min="1" max="1" width="18.140625" style="23" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="2.42578125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="6" width="11.42578125" style="15"/>
+    <col min="7" max="7" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="14" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="11.42578125" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = '",A6,"')")</f>
+        <v>DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = 'Logo Pendiente')</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE(" DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = '",B6,"')")</f>
+        <v xml:space="preserve"> DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = 'Despachos')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@IDACTIVITY",",","@IDAREA")</f>
+        <v>@IDACTIVITY,@IDAREA</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(O6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = 'Logo Pendiente')  DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = 'Despachos') insert into activity_types_area (ACTIVITY_TYPE_ID, AREA_ID) values  (@IDACTIVITY,@IDAREA)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O7" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = '",A7,"')")</f>
+        <v>DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = 'Pedido Incompleto')</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f>CONCATENATE(" DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = '",B7,"')")</f>
+        <v xml:space="preserve"> DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = 'Marca Nacional')</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE("@IDACTIVITY",",","@IDAREA")</f>
+        <v>@IDACTIVITY,@IDAREA</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f>CONCATENATE(O7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = 'Pedido Incompleto')  DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = 'Marca Nacional') insert into activity_types_area (ACTIVITY_TYPE_ID, AREA_ID) values  (@IDACTIVITY,@IDAREA)
+GO</v>
       </c>
     </row>
   </sheetData>
@@ -6004,7 +9030,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Areas!$B$6:$B$1000</xm:f>
+            <xm:f>Areas!$B$6:$B$999</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B1048576</xm:sqref>
         </x14:dataValidation>
@@ -6016,38 +9042,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="23" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1.7109375" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="7" width="11.42578125" style="15"/>
+    <col min="8" max="17" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -6055,12 +9115,64 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
+        <v>'Dif. Ent. Nacionalización',NULL</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Dif. Ent. Nacionalización',NULL)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R9" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
+        <v>'Devolución',NULL</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T9" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Devolución',NULL)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Producto Defectuoso',NULL</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Producto Defectuoso',NULL)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Por Ensamble',NULL</v>
+      </c>
+      <c r="T9" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Por Ensamble',NULL)</v>
       </c>
     </row>
   </sheetData>
@@ -6073,11 +9185,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6085,38 +9197,70 @@
     <col min="1" max="1" width="26.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" style="23" customWidth="1"/>
     <col min="3" max="3" width="2" style="15" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="15"/>
-    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="6" width="11.42578125" style="15"/>
+    <col min="7" max="17" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>35</v>
       </c>
@@ -6124,15 +9268,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(B6="Agrega",1,-1))</f>
+        <v>'iingresar',1</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
+        <v>insert into adjustment_types (ADJUSTMENT_TYPE_NAME, OPERATOR) values  ('iingresar',1)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="I7" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R7" s="53" t="str">
+        <f>CONCATENATE($W$2,A7,$W$2,$X$2,IF(B7="Agrega",1,-1))</f>
+        <v>'retirar',-1</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7" si="0">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
+        <v>insert into adjustment_types (ADJUSTMENT_TYPE_NAME, OPERATOR) values  ('retirar',-1)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I8" s="15" t="s">
         <v>37</v>
       </c>
+      <c r="R8" s="53"/>
+      <c r="T8" s="67"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R9" s="53"/>
+      <c r="T9" s="67"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6149,71 +9329,188 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="23" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="15" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="15"/>
-    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="15"/>
+    <col min="3" max="3" width="30.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="15"/>
+    <col min="6" max="7" width="11.42578125" style="15" customWidth="1"/>
+    <col min="8" max="10" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="15" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" style="15" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="36"/>
+      <c r="T3" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="55" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>206</v>
+      </c>
       <c r="I6" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = '",A6,"')")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@IDDOCUMENT",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2)</f>
+        <v>@IDDOCUMENT,'Alarmas de Ordenes','Alarmas para Ordenes de Compra'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden') insert into alarm_types (DOCUMENT_TYPE_ID, NAME, DESCRIPTION) values  (@IDDOCUMENT,'Alarmas de Ordenes','Alarmas para Ordenes de Compra')
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>204</v>
+      </c>
       <c r="I7" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7:P8" si="0">CONCATENATE("DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = '",A7,"')")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido')</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="1">CONCATENATE("@IDDOCUMENT",$X$2,$W$2,B7,$W$2,$X$2,$W$2,C7,$W$2)</f>
+        <v>@IDDOCUMENT,'Alarmas de Pedidos','Alarmas para Pedidos'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido') insert into alarm_types (DOCUMENT_TYPE_ID, NAME, DESCRIPTION) values  (@IDDOCUMENT,'Alarmas de Pedidos','Alarmas para Pedidos')
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>205</v>
+      </c>
       <c r="I8" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="P8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva')</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>@IDDOCUMENT,'Alarmas de Reservas','Alarmas para Reservas'</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva') insert into alarm_types (DOCUMENT_TYPE_ID, NAME, DESCRIPTION) values  (@IDDOCUMENT,'Alarmas de Reservas','Alarmas para Reservas')
+GO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="T9" s="67"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6230,54 +9527,135 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.85546875" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="4" max="7" width="11.42578125" style="15"/>
+    <col min="8" max="15" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="36"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = '",A6,"')")</f>
+        <v>DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = 'Alarmas de Ordenes')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@IDALARMTYPE",$X$2,$W$2,B6,$W$2)</f>
+        <v>@IDALARMTYPE,'Revisar estado de importacion'</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = 'Alarmas de Ordenes') insert into alarm_messages (ALARM_TYPE_ID, ALARM_MESSAGE) values  (@IDALARMTYPE,'Revisar estado de importacion')
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7" si="0">CONCATENATE("DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = '",A7,"')")</f>
+        <v>DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = 'Alarmas de Pedidos')</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7" si="1">CONCATENATE("@IDALARMTYPE",$X$2,$W$2,B7,$W$2)</f>
+        <v>@IDALARMTYPE,'Confirmar Marcacion de Articulos'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = 'Alarmas de Pedidos') insert into alarm_messages (ALARM_TYPE_ID, ALARM_MESSAGE) values  (@IDALARMTYPE,'Confirmar Marcacion de Articulos')
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="T8" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6301,32 +9679,32 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="23" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="23" customWidth="1"/>
     <col min="4" max="4" width="1" style="15" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="15"/>
-    <col min="9" max="9" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="15"/>
+    <col min="5" max="5" width="11.42578125" style="15"/>
+    <col min="6" max="14" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
@@ -6334,15 +9712,47 @@
         <v>3</v>
       </c>
       <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>31</v>
       </c>
@@ -6351,7 +9761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
@@ -6362,17 +9772,79 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = '",B6,"')")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
+        <v>'solicitud del cliente',@IDDOCUMENT,NULL</v>
+      </c>
+      <c r="T6" s="67" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido') insert into cancellation_reasons (CANCELLATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('solicitud del cliente',@IDDOCUMENT,NULL)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>216</v>
+      </c>
       <c r="I7" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P7" s="53" t="str">
+        <f t="shared" ref="P7:P8" si="0">CONCATENATE("DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = '",B7,"')")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden')</v>
+      </c>
+      <c r="R7" s="53" t="str">
+        <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
+        <v>'Inventario Insuficiente',@IDDOCUMENT,'Proveedor no cuenta con los Articulos solicitados'</v>
+      </c>
+      <c r="T7" s="67" t="str">
+        <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden') insert into cancellation_reasons (CANCELLATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Inventario Insuficiente',@IDDOCUMENT,'Proveedor no cuenta con los Articulos solicitados')
+GO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P8" s="53" t="str">
+        <f t="shared" si="0"/>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva')</v>
+      </c>
+      <c r="R8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>'Cancelado por el cliente',@IDDOCUMENT,NULL</v>
+      </c>
+      <c r="T8" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva') insert into cancellation_reasons (CANCELLATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Cancelado por el cliente',@IDDOCUMENT,NULL)
+GO</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I9" s="15" t="s">
         <v>43</v>
       </c>

--- a/documentos/Formato definicion poblado inicial de tablas de parametrizacion Aldebaran.xlsx
+++ b/documentos/Formato definicion poblado inicial de tablas de parametrizacion Aldebaran.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4680" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="21" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="5595" windowWidth="14805" windowHeight="8010" tabRatio="801" firstSheet="22" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Descripcion del Archivo" sheetId="32" r:id="rId1"/>
@@ -38,13 +38,14 @@
     <sheet name="Proveedores" sheetId="28" r:id="rId29"/>
     <sheet name="Referencias por Proveedor" sheetId="29" r:id="rId30"/>
     <sheet name="Metodos de envio" sheetId="30" r:id="rId31"/>
+    <sheet name="Embalajes" sheetId="36" r:id="rId32"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="386">
   <si>
     <t>*</t>
   </si>
@@ -1330,14 +1331,36 @@
   <si>
     <t>Redetrans</t>
   </si>
+  <si>
+    <t>Tamaño del empaque por Item</t>
+  </si>
+  <si>
+    <t>ITEM_ID, WEIGHT, HEIGHT, WIDTH, LENGTH, QUANTITY</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Ancho</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1589,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1682,6 +1705,8 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1706,14 +1731,75 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="224">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -3113,39 +3199,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="A5:A7" totalsRowShown="0" headerRowDxfId="214" dataDxfId="213" tableBorderDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="A5:A7" totalsRowShown="0" headerRowDxfId="223" dataDxfId="222" tableBorderDxfId="221">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre de la actividad" dataDxfId="211"/>
+    <tableColumn id="1" name="Nombre de la actividad" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla19" displayName="Tabla19" ref="A5:B8" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165" tableBorderDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla19" displayName="Tabla19" ref="A5:B8" totalsRowShown="0" headerRowDxfId="175" dataDxfId="174" tableBorderDxfId="173">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="163"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="162"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="172"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="171"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A5:B7" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160" tableBorderDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A5:B7" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169" tableBorderDxfId="168">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del País" dataDxfId="158"/>
-    <tableColumn id="2" name="Código del País" dataDxfId="157"/>
+    <tableColumn id="1" name="Nombre del País" dataDxfId="167"/>
+    <tableColumn id="2" name="Código del País" dataDxfId="166"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A5:C8" totalsRowShown="0" headerRowDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A5:C8" totalsRowShown="0" headerRowDxfId="165">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Departamento" dataDxfId="155"/>
-    <tableColumn id="2" name="País" dataDxfId="154"/>
+    <tableColumn id="1" name="Nombre del Departamento" dataDxfId="164"/>
+    <tableColumn id="2" name="País" dataDxfId="163"/>
     <tableColumn id="3" name="Concatenado">
       <calculatedColumnFormula>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</calculatedColumnFormula>
     </tableColumn>
@@ -3155,11 +3241,11 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla17" displayName="Tabla17" ref="A5:C8" totalsRowShown="0" headerRowDxfId="153" tableBorderDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla17" displayName="Tabla17" ref="A5:C8" totalsRowShown="0" headerRowDxfId="162" tableBorderDxfId="161">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre de la Ciudad" dataDxfId="151"/>
-    <tableColumn id="2" name="Departamento-Estado" dataDxfId="150"/>
-    <tableColumn id="6" name="Columna2" dataDxfId="149">
+    <tableColumn id="1" name="Nombre de la Ciudad" dataDxfId="160"/>
+    <tableColumn id="2" name="Departamento-Estado" dataDxfId="159"/>
+    <tableColumn id="6" name="Columna2" dataDxfId="158">
       <calculatedColumnFormula>IF(B6&lt;&gt;"",IF(A6&lt;&gt;"",CONCATENATE(B6,"-",A6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3168,48 +3254,48 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A5:B7" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147" tableBorderDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A5:B7" totalsRowShown="0" headerRowDxfId="157" dataDxfId="156" tableBorderDxfId="155">
   <tableColumns count="2">
-    <tableColumn id="1" name="Código del Tipo" dataDxfId="145"/>
-    <tableColumn id="2" name="Nombre del Tipo" dataDxfId="144"/>
+    <tableColumn id="1" name="Código del Tipo" dataDxfId="154"/>
+    <tableColumn id="2" name="Nombre del Tipo" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A5:J8" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" tableBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A5:J8" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151" tableBorderDxfId="150">
   <tableColumns count="10">
-    <tableColumn id="1" name="Nombre del Satelite" dataDxfId="140"/>
-    <tableColumn id="2" name="Dirección del Satelite" dataDxfId="139"/>
-    <tableColumn id="3" name="Tipo de Identificación" dataDxfId="138"/>
-    <tableColumn id="4" name="Identificación" dataDxfId="137"/>
-    <tableColumn id="5" name="Teléfono" dataDxfId="136"/>
-    <tableColumn id="6" name="Fax" dataDxfId="135"/>
-    <tableColumn id="7" name="Email" dataDxfId="134"/>
-    <tableColumn id="8" name="Ciudad" dataDxfId="133"/>
-    <tableColumn id="9" name="Representante Legal" dataDxfId="132"/>
-    <tableColumn id="10" name="Activo" dataDxfId="131"/>
+    <tableColumn id="1" name="Nombre del Satelite" dataDxfId="149"/>
+    <tableColumn id="2" name="Dirección del Satelite" dataDxfId="148"/>
+    <tableColumn id="3" name="Tipo de Identificación" dataDxfId="147"/>
+    <tableColumn id="4" name="Identificación" dataDxfId="146"/>
+    <tableColumn id="5" name="Teléfono" dataDxfId="145"/>
+    <tableColumn id="6" name="Fax" dataDxfId="144"/>
+    <tableColumn id="7" name="Email" dataDxfId="143"/>
+    <tableColumn id="8" name="Ciudad" dataDxfId="142"/>
+    <tableColumn id="9" name="Representante Legal" dataDxfId="141"/>
+    <tableColumn id="10" name="Activo" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A5:L7" totalsRowShown="0" tableBorderDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A5:L7" totalsRowShown="0" tableBorderDxfId="139">
   <tableColumns count="12">
-    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="129"/>
-    <tableColumn id="2" name="Identificación" dataDxfId="128"/>
-    <tableColumn id="3" name="Nombre" dataDxfId="127"/>
-    <tableColumn id="4" name="Teléfono 1" dataDxfId="126"/>
-    <tableColumn id="5" name="Teléfono 2" dataDxfId="125"/>
-    <tableColumn id="6" name="Fax" dataDxfId="124"/>
-    <tableColumn id="7" name="Dirección" dataDxfId="123"/>
-    <tableColumn id="8" name="Celular" dataDxfId="122"/>
-    <tableColumn id="9" name="Correo Electrónico" dataDxfId="121" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="11" name="Ciudad" dataDxfId="120"/>
-    <tableColumn id="13" name="Envio de Correo" dataDxfId="119"/>
-    <tableColumn id="15" name="Columna4" dataDxfId="118">
+    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="138"/>
+    <tableColumn id="2" name="Identificación" dataDxfId="137"/>
+    <tableColumn id="3" name="Nombre" dataDxfId="136"/>
+    <tableColumn id="4" name="Teléfono 1" dataDxfId="135"/>
+    <tableColumn id="5" name="Teléfono 2" dataDxfId="134"/>
+    <tableColumn id="6" name="Fax" dataDxfId="133"/>
+    <tableColumn id="7" name="Dirección" dataDxfId="132"/>
+    <tableColumn id="8" name="Celular" dataDxfId="131"/>
+    <tableColumn id="9" name="Correo Electrónico" dataDxfId="130" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="11" name="Ciudad" dataDxfId="129"/>
+    <tableColumn id="13" name="Envio de Correo" dataDxfId="128"/>
+    <tableColumn id="15" name="Columna4" dataDxfId="127">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3218,48 +3304,48 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla20" displayName="Tabla20" ref="A5:E7" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla20" displayName="Tabla20" ref="A5:E7" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" tableBorderDxfId="124">
   <tableColumns count="5">
-    <tableColumn id="1" name="Cliente " dataDxfId="114"/>
-    <tableColumn id="2" name="Nombre del Contacto" dataDxfId="113"/>
-    <tableColumn id="3" name="Título" dataDxfId="112"/>
-    <tableColumn id="4" name="Teléfono" dataDxfId="111"/>
-    <tableColumn id="5" name="Correo Electrónico" dataDxfId="110" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" name="Cliente " dataDxfId="123"/>
+    <tableColumn id="2" name="Nombre del Contacto" dataDxfId="122"/>
+    <tableColumn id="3" name="Título" dataDxfId="121"/>
+    <tableColumn id="4" name="Teléfono" dataDxfId="120"/>
+    <tableColumn id="5" name="Correo Electrónico" dataDxfId="119" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla2021" displayName="Tabla2021" ref="A5:H7" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" tableBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla2021" displayName="Tabla2021" ref="A5:H7" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117" tableBorderDxfId="116">
   <tableColumns count="8">
-    <tableColumn id="1" name="Nombre" dataDxfId="106"/>
-    <tableColumn id="2" name="Teléfono 1" dataDxfId="105"/>
-    <tableColumn id="3" name="Teléfono 2" dataDxfId="104"/>
-    <tableColumn id="4" name="Fax" dataDxfId="103"/>
-    <tableColumn id="9" name="Dirección" dataDxfId="102"/>
-    <tableColumn id="10" name="Correo Electrónico 1" dataDxfId="101"/>
-    <tableColumn id="7" name="Correo Electrónico 2" dataDxfId="100"/>
-    <tableColumn id="5" name="Ciudad " dataDxfId="99"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="115"/>
+    <tableColumn id="2" name="Teléfono 1" dataDxfId="114"/>
+    <tableColumn id="3" name="Teléfono 2" dataDxfId="113"/>
+    <tableColumn id="4" name="Fax" dataDxfId="112"/>
+    <tableColumn id="9" name="Dirección" dataDxfId="111"/>
+    <tableColumn id="10" name="Correo Electrónico 1" dataDxfId="110"/>
+    <tableColumn id="7" name="Correo Electrónico 2" dataDxfId="109"/>
+    <tableColumn id="5" name="Ciudad " dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla202122" displayName="Tabla202122" ref="A5:K7" totalsRowShown="0" headerRowDxfId="98" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla202122" displayName="Tabla202122" ref="A5:K7" totalsRowShown="0" headerRowDxfId="107" tableBorderDxfId="106">
   <tableColumns count="11">
-    <tableColumn id="1" name="Transportadora" dataDxfId="96"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="95"/>
-    <tableColumn id="3" name="Teléfono 1" dataDxfId="94"/>
-    <tableColumn id="4" name="Teléfono 2" dataDxfId="93"/>
-    <tableColumn id="9" name="Fax" dataDxfId="92"/>
-    <tableColumn id="10" name="Dirección" dataDxfId="91"/>
-    <tableColumn id="7" name="Ciudad" dataDxfId="90"/>
-    <tableColumn id="12" name="Contacto" dataDxfId="89"/>
-    <tableColumn id="11" name="Correo Electrónico 1" dataDxfId="88" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="5" name="Correo Electrónico 2" dataDxfId="87"/>
-    <tableColumn id="13" name="Concatenado" dataDxfId="86">
+    <tableColumn id="1" name="Transportadora" dataDxfId="105"/>
+    <tableColumn id="2" name="Nombre" dataDxfId="104"/>
+    <tableColumn id="3" name="Teléfono 1" dataDxfId="103"/>
+    <tableColumn id="4" name="Teléfono 2" dataDxfId="102"/>
+    <tableColumn id="9" name="Fax" dataDxfId="101"/>
+    <tableColumn id="10" name="Dirección" dataDxfId="100"/>
+    <tableColumn id="7" name="Ciudad" dataDxfId="99"/>
+    <tableColumn id="12" name="Contacto" dataDxfId="98"/>
+    <tableColumn id="11" name="Correo Electrónico 1" dataDxfId="97" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" name="Correo Electrónico 2" dataDxfId="96"/>
+    <tableColumn id="13" name="Concatenado" dataDxfId="95">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3268,87 +3354,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A5:C7" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209" tableBorderDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A5:C7" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218" tableBorderDxfId="217">
   <tableColumns count="3">
-    <tableColumn id="1" name="Código del Area" dataDxfId="207"/>
-    <tableColumn id="2" name="Nombre del Area" dataDxfId="206"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="205"/>
+    <tableColumn id="1" name="Código del Area" dataDxfId="216"/>
+    <tableColumn id="2" name="Nombre del Area" dataDxfId="215"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="214"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla20212223" displayName="Tabla20212223" ref="A5:B9" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla20212223" displayName="Tabla20212223" ref="A5:B9" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Método" dataDxfId="82"/>
-    <tableColumn id="2" name="Descripción " dataDxfId="81"/>
+    <tableColumn id="1" name="Nombre del Método" dataDxfId="91"/>
+    <tableColumn id="2" name="Descripción " dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla2021222324" displayName="Tabla2021222324" ref="A5:B7" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tabla2021222324" displayName="Tabla2021222324" ref="A5:B7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87">
   <tableColumns count="2">
-    <tableColumn id="1" name="Metodo de Transporte" dataDxfId="77"/>
-    <tableColumn id="2" name="Agente de la Transportadora" dataDxfId="76"/>
+    <tableColumn id="1" name="Metodo de Transporte" dataDxfId="86"/>
+    <tableColumn id="2" name="Agente de la Transportadora" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla202122232425" displayName="Tabla202122232425" ref="A5:D6" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74" tableBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tabla202122232425" displayName="Tabla202122232425" ref="A5:D6" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83" tableBorderDxfId="82">
   <tableColumns count="4">
-    <tableColumn id="1" name="Código" dataDxfId="72"/>
-    <tableColumn id="15" name="Nombre" dataDxfId="71"/>
-    <tableColumn id="14" name="Afecta la Pagina" dataDxfId="70"/>
-    <tableColumn id="2" name="Activa" dataDxfId="69"/>
+    <tableColumn id="1" name="Código" dataDxfId="81"/>
+    <tableColumn id="15" name="Nombre" dataDxfId="80"/>
+    <tableColumn id="14" name="Afecta la Pagina" dataDxfId="79"/>
+    <tableColumn id="2" name="Activa" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla20212223242526" displayName="Tabla20212223242526" ref="A5:A8" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tabla20212223242526" displayName="Tabla20212223242526" ref="A5:A8" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" tableBorderDxfId="75">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre" dataDxfId="65"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla2021222324252627" displayName="Tabla2021222324252627" ref="A5:A9" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla2021222324252627" displayName="Tabla2021222324252627" ref="A5:A9" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71">
   <tableColumns count="1">
-    <tableColumn id="1" name="Nombre" dataDxfId="61"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla20212223242528" displayName="Tabla20212223242528" ref="A5:R6" totalsRowShown="0" headerRowDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla20212223242528" displayName="Tabla20212223242528" ref="A5:R6" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <tableColumns count="18">
-    <tableColumn id="1" name="Código de Linea" dataDxfId="58"/>
-    <tableColumn id="15" name="Referencia Interna" dataDxfId="57"/>
-    <tableColumn id="14" name="Nombre del Artículo" dataDxfId="56"/>
-    <tableColumn id="19" name="Reerencia para el proveedor" dataDxfId="55"/>
-    <tableColumn id="20" name="Nombre del Artículo para el Proveedor" dataDxfId="54"/>
-    <tableColumn id="21" name="Costo Fob" dataDxfId="53"/>
-    <tableColumn id="22" name="Moneda" dataDxfId="52"/>
-    <tableColumn id="17" name="Descripción" dataDxfId="51"/>
-    <tableColumn id="2" name="Inventario Externo" dataDxfId="50"/>
-    <tableColumn id="18" name="Costo Cif" dataDxfId="49"/>
-    <tableColumn id="27" name="Volumen" dataDxfId="48"/>
-    <tableColumn id="28" name="Peso" dataDxfId="47"/>
-    <tableColumn id="25" name="Unidad de medida Fob" dataDxfId="46"/>
-    <tableColumn id="26" name="Unidad de Medida Cif" dataDxfId="45"/>
-    <tableColumn id="23" name="Producto Nacional" dataDxfId="44"/>
-    <tableColumn id="24" name="Activo" dataDxfId="43"/>
-    <tableColumn id="16" name="Visible en el Catalogo Externo" dataDxfId="42"/>
-    <tableColumn id="29" name="Combinado" dataDxfId="41">
+    <tableColumn id="1" name="Código de Linea" dataDxfId="67"/>
+    <tableColumn id="15" name="Referencia Interna" dataDxfId="66"/>
+    <tableColumn id="14" name="Nombre del Artículo" dataDxfId="65"/>
+    <tableColumn id="19" name="Reerencia para el proveedor" dataDxfId="64"/>
+    <tableColumn id="20" name="Nombre del Artículo para el Proveedor" dataDxfId="63"/>
+    <tableColumn id="21" name="Costo Fob" dataDxfId="62"/>
+    <tableColumn id="22" name="Moneda" dataDxfId="61"/>
+    <tableColumn id="17" name="Descripción" dataDxfId="60"/>
+    <tableColumn id="2" name="Inventario Externo" dataDxfId="59"/>
+    <tableColumn id="18" name="Costo Cif" dataDxfId="58"/>
+    <tableColumn id="27" name="Volumen" dataDxfId="57"/>
+    <tableColumn id="28" name="Peso" dataDxfId="56"/>
+    <tableColumn id="25" name="Unidad de medida Fob" dataDxfId="55"/>
+    <tableColumn id="26" name="Unidad de Medida Cif" dataDxfId="54"/>
+    <tableColumn id="23" name="Producto Nacional" dataDxfId="53"/>
+    <tableColumn id="24" name="Activo" dataDxfId="52"/>
+    <tableColumn id="16" name="Visible en el Catalogo Externo" dataDxfId="51"/>
+    <tableColumn id="29" name="Combinado" dataDxfId="50">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3357,29 +3443,29 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla20212223242529" displayName="Tabla20212223242529" ref="A5:B6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla20212223242529" displayName="Tabla20212223242529" ref="A5:B6" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
   <tableColumns count="2">
-    <tableColumn id="1" name="Referencia Interna Artículo" dataDxfId="37"/>
-    <tableColumn id="15" name="Código del Area" dataDxfId="36"/>
+    <tableColumn id="1" name="Referencia Interna Artículo" dataDxfId="46"/>
+    <tableColumn id="15" name="Código del Area" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabla2021222324252930" displayName="Tabla2021222324252930" ref="A5:K6" totalsRowShown="0" headerRowDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabla2021222324252930" displayName="Tabla2021222324252930" ref="A5:K6" totalsRowShown="0" headerRowDxfId="44" tableBorderDxfId="43">
   <tableColumns count="11">
-    <tableColumn id="1" name="Referencia Interna artículo" dataDxfId="33"/>
-    <tableColumn id="24" name="Referencia" dataDxfId="32"/>
-    <tableColumn id="23" name="Referencia para el proveedor" dataDxfId="31"/>
-    <tableColumn id="22" name="Nombre de la referencia" dataDxfId="30"/>
-    <tableColumn id="21" name="Nombre de la referencia para el proveedor" dataDxfId="29"/>
-    <tableColumn id="20" name="Descripción" dataDxfId="28"/>
-    <tableColumn id="19" name="Cantidad en Bodega Local" dataDxfId="27"/>
-    <tableColumn id="18" name="Cantidad en Zona Franca" dataDxfId="26"/>
-    <tableColumn id="17" name="Activo" dataDxfId="25"/>
-    <tableColumn id="26" name="Cantidad Minima para Alarma" dataDxfId="24"/>
-    <tableColumn id="27" name="Combinado" dataDxfId="23">
+    <tableColumn id="1" name="Referencia Interna artículo" dataDxfId="42"/>
+    <tableColumn id="24" name="Referencia" dataDxfId="41"/>
+    <tableColumn id="23" name="Referencia para el proveedor" dataDxfId="40"/>
+    <tableColumn id="22" name="Nombre de la referencia" dataDxfId="39"/>
+    <tableColumn id="21" name="Nombre de la referencia para el proveedor" dataDxfId="38"/>
+    <tableColumn id="20" name="Descripción" dataDxfId="37"/>
+    <tableColumn id="19" name="Cantidad en Bodega Local" dataDxfId="36"/>
+    <tableColumn id="18" name="Cantidad en Zona Franca" dataDxfId="35"/>
+    <tableColumn id="17" name="Activo" dataDxfId="34"/>
+    <tableColumn id="26" name="Cantidad Minima para Alarma" dataDxfId="33"/>
+    <tableColumn id="27" name="Combinado" dataDxfId="32">
       <calculatedColumnFormula>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3388,111 +3474,125 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabla20212223242531" displayName="Tabla20212223242531" ref="A5:J6" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabla20212223242531" displayName="Tabla20212223242531" ref="A5:J6" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" tableBorderDxfId="29">
   <tableColumns count="10">
-    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="19"/>
-    <tableColumn id="15" name="Identificación" dataDxfId="18"/>
-    <tableColumn id="22" name="Código" dataDxfId="17"/>
-    <tableColumn id="23" name="Nombre" dataDxfId="16"/>
-    <tableColumn id="20" name="Dirección" dataDxfId="15"/>
-    <tableColumn id="21" name="Teléfono" dataDxfId="14"/>
-    <tableColumn id="18" name="Fax" dataDxfId="13"/>
-    <tableColumn id="19" name="Correo Electrónico" dataDxfId="12" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="16" name="Contacto" dataDxfId="11"/>
-    <tableColumn id="17" name="Ciudad" dataDxfId="10"/>
+    <tableColumn id="1" name="Tipo de Identificación" dataDxfId="28"/>
+    <tableColumn id="15" name="Identificación" dataDxfId="27"/>
+    <tableColumn id="22" name="Código" dataDxfId="26"/>
+    <tableColumn id="23" name="Nombre" dataDxfId="25"/>
+    <tableColumn id="20" name="Dirección" dataDxfId="24"/>
+    <tableColumn id="21" name="Teléfono" dataDxfId="23"/>
+    <tableColumn id="18" name="Fax" dataDxfId="22"/>
+    <tableColumn id="19" name="Correo Electrónico" dataDxfId="21" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="16" name="Contacto" dataDxfId="20"/>
+    <tableColumn id="17" name="Ciudad" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabla20212223242532" displayName="Tabla20212223242532" ref="A5:B6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabla20212223242532" displayName="Tabla20212223242532" ref="A5:B6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <tableColumns count="2">
-    <tableColumn id="1" name="Código del Proveedor" dataDxfId="6"/>
-    <tableColumn id="15" name="Referencia" dataDxfId="5"/>
+    <tableColumn id="1" name="Código del Proveedor" dataDxfId="15"/>
+    <tableColumn id="15" name="Referencia" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A5:B7" totalsRowShown="0" headerRowDxfId="204" dataDxfId="203" tableBorderDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A5:B7" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212" tableBorderDxfId="211">
   <tableColumns count="2">
-    <tableColumn id="1" name="Actividad" dataDxfId="201"/>
-    <tableColumn id="2" name="Area" dataDxfId="200"/>
+    <tableColumn id="1" name="Actividad" dataDxfId="210"/>
+    <tableColumn id="2" name="Area" dataDxfId="209"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla20212223242533" displayName="Tabla20212223242533" ref="A5:B9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla20212223242533" displayName="Tabla20212223242533" ref="A5:B9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Método" dataDxfId="1"/>
-    <tableColumn id="15" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="1" name="Nombre del Método" dataDxfId="10"/>
+    <tableColumn id="15" name="Descripción" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla202122232425332" displayName="Tabla202122232425332" ref="A5:F6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="8" tableBorderDxfId="7">
+  <tableColumns count="6">
+    <tableColumn id="1" name="Referencia Interna artículo" dataDxfId="5"/>
+    <tableColumn id="15" name="Peso" dataDxfId="4"/>
+    <tableColumn id="2" name="Tamaño" dataDxfId="3"/>
+    <tableColumn id="3" name="Ancho" dataDxfId="2"/>
+    <tableColumn id="4" name="Alto" dataDxfId="0"/>
+    <tableColumn id="5" name="Cantidad" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A5:B9" totalsRowShown="0" headerRowDxfId="199" dataDxfId="198" tableBorderDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A5:B9" totalsRowShown="0" headerRowDxfId="208" dataDxfId="207" tableBorderDxfId="206">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="196"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="195"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="205"/>
+    <tableColumn id="2" name="Descripción" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A5:B7" totalsRowShown="0" headerRowDxfId="194" dataDxfId="193" tableBorderDxfId="192">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A5:B7" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202" tableBorderDxfId="201">
   <tableColumns count="2">
-    <tableColumn id="1" name="Nombre del Tipo de Ajuste" dataDxfId="191"/>
-    <tableColumn id="2" name="Afectación sobre el Inventario" dataDxfId="190"/>
+    <tableColumn id="1" name="Nombre del Tipo de Ajuste" dataDxfId="200"/>
+    <tableColumn id="2" name="Afectación sobre el Inventario" dataDxfId="199"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A5:C8" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" tableBorderDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A5:C8" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197" tableBorderDxfId="196">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tipo de Documento" dataDxfId="186"/>
-    <tableColumn id="2" name="Nombre del Tipo de Alarma" dataDxfId="185"/>
-    <tableColumn id="3" name="Descripcion" dataDxfId="184"/>
+    <tableColumn id="1" name="Tipo de Documento" dataDxfId="195"/>
+    <tableColumn id="2" name="Nombre del Tipo de Alarma" dataDxfId="194"/>
+    <tableColumn id="3" name="Descripcion" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A5:B7" totalsRowShown="0" headerRowDxfId="183" dataDxfId="182" tableBorderDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A5:B7" totalsRowShown="0" headerRowDxfId="192" dataDxfId="191" tableBorderDxfId="190">
   <tableColumns count="2">
-    <tableColumn id="1" name="Tipo de Alarma" dataDxfId="180"/>
-    <tableColumn id="2" name="Mensaje" dataDxfId="179"/>
+    <tableColumn id="1" name="Tipo de Alarma" dataDxfId="189"/>
+    <tableColumn id="2" name="Mensaje" dataDxfId="188"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A5:C8" totalsRowShown="0" headerRowDxfId="178" dataDxfId="177" tableBorderDxfId="176">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A5:C8" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186" tableBorderDxfId="185">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="175"/>
-    <tableColumn id="2" name="Tipo de Documento" dataDxfId="174"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="173"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="184"/>
+    <tableColumn id="2" name="Tipo de Documento" dataDxfId="183"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla18" displayName="Tabla18" ref="A5:C8" totalsRowShown="0" headerRowDxfId="172" dataDxfId="171" tableBorderDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla18" displayName="Tabla18" ref="A5:C8" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180" tableBorderDxfId="179">
   <tableColumns count="3">
-    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="169"/>
-    <tableColumn id="2" name="Tipo de Documento" dataDxfId="168"/>
-    <tableColumn id="3" name="Descripción" dataDxfId="167"/>
+    <tableColumn id="1" name="Nombre del Motivo" dataDxfId="178"/>
+    <tableColumn id="2" name="Tipo de Documento" dataDxfId="177"/>
+    <tableColumn id="3" name="Descripción" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3812,96 +3912,96 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
     </row>
     <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -3972,58 +4072,58 @@
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4151,7 +4251,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
         <v>'Error en cantidades',@IDDOCUMENT,NULL</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido') insert into modification_reasons (MODIFICATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Error en cantidades',@IDDOCUMENT,NULL)
 GO</v>
@@ -4175,7 +4275,7 @@
         <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
         <v>'Eliminar Articulos',@IDDOCUMENT,NULL</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden') insert into modification_reasons (MODIFICATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Eliminar Articulos',@IDDOCUMENT,NULL)
 GO</v>
@@ -4199,7 +4299,7 @@
         <f t="shared" si="1"/>
         <v>'Cambio de vencimiento',@IDDOCUMENT,NULL</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="2"/>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva') insert into modification_reasons (MODIFICATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Cambio de vencimiento',@IDDOCUMENT,NULL)
 GO</v>
@@ -4317,7 +4417,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
         <v>'Falta de Articulos',NULL</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into close_customer_order_reasons (CLOSE_REASON_NAME, CLOSE_REASON_NOTES) values  ('Falta de Articulos',NULL)</v>
       </c>
@@ -4330,7 +4430,7 @@
         <f t="shared" ref="R7:R8" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
         <v>'Solicitud del Cliente',NULL</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into close_customer_order_reasons (CLOSE_REASON_NAME, CLOSE_REASON_NOTES) values  ('Solicitud del Cliente',NULL)</v>
       </c>
@@ -4343,14 +4443,14 @@
         <f t="shared" si="0"/>
         <v>'Error en Pedido',NULL</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into close_customer_order_reasons (CLOSE_REASON_NAME, CLOSE_REASON_NOTES) values  ('Error en Pedido',NULL)</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R9" s="53"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4461,7 +4561,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2)</f>
         <v>'Colombia','CO'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into countries (COUNTRY_NAME, COUNTRY_CODE) values  ('Colombia','CO')</v>
       </c>
@@ -4477,14 +4577,14 @@
         <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2)</f>
         <v>'Estados Unidos','USA'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7" si="0">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into countries (COUNTRY_NAME, COUNTRY_CODE) values  ('Estados Unidos','USA')</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R8" s="53"/>
-      <c r="T8" s="67"/>
+      <c r="T8" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4616,7 +4716,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDCOUNTRY")</f>
         <v>'Cundinamarca',@IDCOUNTRY</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'CO') insert into departments (DEPARTMENT_NAME, COUNTRY_ID) values  ('Cundinamarca',@IDCOUNTRY)
 GO</v>
@@ -4641,7 +4741,7 @@
         <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDCOUNTRY")</f>
         <v>'Antioquia',@IDCOUNTRY</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'CO') insert into departments (DEPARTMENT_NAME, COUNTRY_ID) values  ('Antioquia',@IDCOUNTRY)
 GO</v>
@@ -4666,7 +4766,7 @@
         <f t="shared" si="1"/>
         <v>'Florida',@IDCOUNTRY</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="2"/>
         <v>DECLARE @IDCOUNTRY INT = (SELECT COUNTRY_ID FROM countries WHERE COUNTRY_CODE = 'USA') insert into departments (DEPARTMENT_NAME, COUNTRY_ID) values  ('Florida',@IDCOUNTRY)
 GO</v>
@@ -4803,7 +4903,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDDEPARTAMENT")</f>
         <v>'Bogota',@IDDEPARTAMENT</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'CO-Cundinamarca') insert into cities (CITY_NAME, DEPARTMENT_ID) values  ('Bogota',@IDDEPARTAMENT)
 GO</v>
@@ -4828,7 +4928,7 @@
         <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDDEPARTAMENT")</f>
         <v>'Chia',@IDDEPARTAMENT</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'CO-Cundinamarca') insert into cities (CITY_NAME, DEPARTMENT_ID) values  ('Chia',@IDDEPARTAMENT)
 GO</v>
@@ -4853,7 +4953,7 @@
         <f t="shared" si="1"/>
         <v>'Miami',@IDDEPARTAMENT</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="2"/>
         <v>DECLARE @IDDEPARTAMENT INT = (SELECT DEPARTMENT_ID from departments a join countries b ON b.COUNTRY_ID = a.COUNTRY_ID WHERE B.COUNTRY_CODE+'-'+A.DEPARTMENT_NAME = 'USA-Florida') insert into cities (CITY_NAME, DEPARTMENT_ID) values  ('Miami',@IDDEPARTAMENT)
 GO</v>
@@ -4975,7 +5075,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2)</f>
         <v>'CC','Cédula de Ciudadania'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into identity_types (IDENTITY_TYPE_CODE, IDENTITY_TYPE_NAME) values  ('CC','Cédula de Ciudadania')</v>
       </c>
@@ -4991,7 +5091,7 @@
         <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2)</f>
         <v>'NIT','Nit Empresa'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7" si="0">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into identity_types (IDENTITY_TYPE_CODE, IDENTITY_TYPE_NAME) values  ('NIT','Nit Empresa')</v>
       </c>
@@ -5238,7 +5338,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D6,$W$2,$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I6,$W$2,$X$2,"@ISACTIVE")</f>
         <v>'Satelite Mugs','Proplasticos',@IDIDENTTYPE,'123458','3007854516',NULL,'mugs@gmail.com',@IDCITY,'Fulanito',@ISACTIVE</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(O6," ",Q6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT') DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'USA-Florida-Miami') insert into process_satellites (PROCESS_SATELLITE_NAME, PROCESS_SATELLITE_ADDRESS, IDENTITY_TYPE_ID, IDENTITY_NUMBER, PHONE, FAX, EMAIL, CITY_ID, LEGAL_REPRESENTATIVE, IS_ACTIVE) values  ('Satelite Mugs','Proplasticos',@IDIDENTTYPE,'123458','3007854516',NULL,'mugs@gmail.com',@IDCITY,'Fulanito',@ISACTIVE)
 GO</v>
@@ -5291,7 +5391,7 @@
         <f t="shared" ref="R7:R8" si="3">CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D7,$W$2,$X$2,$W$2,E7,$W$2,$X$2,IF(LEN(F7)&gt;0,CONCATENATE($W$2,F7,$W$2),$Z$2),$X$2,IF(LEN(G7)&gt;0,CONCATENATE($W$2,G7,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I7,$W$2,$X$2,"@ISACTIVE")</f>
         <v>'Planta','Proplasticos',@IDIDENTTYPE,'568745','3016254578',NULL,'planta@catalogospromocionales.com',@IDCITY,'Gustavo Ramirez',@ISACTIVE</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="4">CONCATENATE(O7," ",Q7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT') DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into process_satellites (PROCESS_SATELLITE_NAME, PROCESS_SATELLITE_ADDRESS, IDENTITY_TYPE_ID, IDENTITY_NUMBER, PHONE, FAX, EMAIL, CITY_ID, LEGAL_REPRESENTATIVE, IS_ACTIVE) values  ('Planta','Proplasticos',@IDIDENTTYPE,'568745','3016254578',NULL,'planta@catalogospromocionales.com',@IDCITY,'Gustavo Ramirez',@ISACTIVE)
 GO</v>
@@ -5341,7 +5441,7 @@
         <f t="shared" si="3"/>
         <v>'Etipress S.A','Cra 39 B nº 17-98',@IDIDENTTYPE,'23658','3142458963',NULL,'etipress_info@etipress.com.co',@IDCITY,'Perencejo',@ISACTIVE</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="4"/>
         <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'CC') DECLARE @ISACTIVE BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Bogota') insert into process_satellites (PROCESS_SATELLITE_NAME, PROCESS_SATELLITE_ADDRESS, IDENTITY_TYPE_ID, IDENTITY_NUMBER, PHONE, FAX, EMAIL, CITY_ID, LEGAL_REPRESENTATIVE, IS_ACTIVE) values  ('Etipress S.A','Cra 39 B nº 17-98',@IDIDENTTYPE,'23658','3142458963',NULL,'etipress_info@etipress.com.co',@IDCITY,'Perencejo',@ISACTIVE)
 GO</v>
@@ -5641,7 +5741,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D6,$W$2,$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I6,$W$2,$X$2,"@ISACTIVE")</f>
         <v>'CC','79872389',@IDIDENTTYPE,'3008987553','3004587458',NULL,'calle 4a # 29 - 25',@IDCITY,'ardc2440@gmail.com;paolaflorezp@gmail.com',@ISACTIVE</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(O6," ",Q6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'Andres Diaz') DECLARE @ISACTIVE BIT = (CASE WHEN 'CO-Cundinamarca-Bogota' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '3008987553') insert into customers (IDENTITY_TYPE_ID, IDENTITY_NUMBER, CUSTOMER_NAME, PHONE1, PHONE2, FAX, CUSTOMER_ADDRESS, CELL_PHONE, EMAIL, CITY_ID, SEND_EMAIL) values  ('CC','79872389',@IDIDENTTYPE,'3008987553','3004587458',NULL,'calle 4a # 29 - 25',@IDCITY,'ardc2440@gmail.com;paolaflorezp@gmail.com',@ISACTIVE)
 GO</v>
@@ -5701,7 +5801,7 @@
         <f t="shared" ref="R7" si="3">CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,"@IDIDENTTYPE",$X$2,$W$2,D7,$W$2,$X$2,$W$2,E7,$W$2,$X$2,IF(LEN(F7)&gt;0,CONCATENATE($W$2,F7,$W$2),$Z$2),$X$2,IF(LEN(G7)&gt;0,CONCATENATE($W$2,G7,$W$2),$Z$2),$X$2,"@IDCITY",$X$2,$W$2,I7,$W$2,$X$2,"@ISACTIVE")</f>
         <v>'CC','35427339',@IDIDENTTYPE,'3542658925','3112457856',NULL,'Carrera 2 b # 11 - 25',@IDCITY,'paolaflorezp@gmail.com',@ISACTIVE</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7" si="4">CONCATENATE(O7," ",Q7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'Paola Florez') DECLARE @ISACTIVE BIT = (CASE WHEN 'CO-Cundinamarca-Chia' = 'Si' THEN 1 ELSE 0 END) DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = '3014296649') insert into customers (IDENTITY_TYPE_ID, IDENTITY_NUMBER, CUSTOMER_NAME, PHONE1, PHONE2, FAX, CUSTOMER_ADDRESS, CELL_PHONE, EMAIL, CITY_ID, SEND_EMAIL) values  ('CC','35427339',@IDIDENTTYPE,'3542658925','3112457856',NULL,'Carrera 2 b # 11 - 25',@IDCITY,'paolaflorezp@gmail.com',@ISACTIVE)
 GO</v>
@@ -5712,7 +5812,7 @@
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
       <c r="R8" s="53"/>
-      <c r="T8" s="67"/>
+      <c r="T8" s="59"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5896,7 +5996,7 @@
         <f>CONCATENATE("@IDCUSTOMER",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,$W$2,D6,$W$2,$X$2,IF(LEN(E6)&gt;0,CONCATENATE($W$2,E6,$W$2),$Z$2))</f>
         <v>@IDCUSTOMER,'andres diaz','propietario','3008987553','ardc2440@gmail.com'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = 'CC-79872389') insert into customer_contacts (CUSTOMER_ID, CUSTOMER_CONTACT_NAME, TITLE, PHONE, EMAIL) values  (@IDCUSTOMER,'andres diaz','propietario','3008987553','ardc2440@gmail.com')
 GO</v>
@@ -5927,7 +6027,7 @@
         <f>CONCATENATE("@IDCUSTOMER",$X$2,$W$2,B7,$W$2,$X$2,$W$2,C7,$W$2,$X$2,$W$2,D7,$W$2,$X$2,IF(LEN(E7)&gt;0,CONCATENATE($W$2,E7,$W$2),$Z$2))</f>
         <v>@IDCUSTOMER,'Paola Florez','Gerente','3014662769','paolaflorezp@gmail.com'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f>CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDCUSTOMER INT = (SELECT CITY_ID FROM customers a JOIN identity_types b ON b.IDENTITY_TYPE_ID = a.IDENTITY_TYPE_ID WHERE b.IDENTITY_TYPE_CODE +'-'+a.IDENTITY_NUMBER = 'CC-35427339') insert into customer_contacts (CUSTOMER_ID, CUSTOMER_CONTACT_NAME, TITLE, PHONE, EMAIL) values  (@IDCUSTOMER,'Paola Florez','Gerente','3014662769','paolaflorezp@gmail.com')
 GO</v>
@@ -6134,7 +6234,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2),$X$2,IF(LEN(D6)&gt;0,CONCATENATE($W$2,D6,$W$2),$Z$2),$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,"@IDCITY")</f>
         <v>'trasportes fusa','745585','22222','5456456452','calle 15 parque internacional central','InterTransMar@gmail.com',NULL,@IDCITY</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into forwarders (FORWARDER_NAME, PHONE1, PHONE2, FAX, FORWARDER_ADDRESS, MAIL1, MAIL2, CITY_ID) values  ('trasportes fusa','745585','22222','5456456452','calle 15 parque internacional central','InterTransMar@gmail.com',NULL,@IDCITY)
 GO</v>
@@ -6165,7 +6265,7 @@
         <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2),$X$2,IF(LEN(D7)&gt;0,CONCATENATE($W$2,D7,$W$2),$Z$2),$X$2,$W$2,E7,$W$2,$X$2,IF(LEN(F7)&gt;0,CONCATENATE($W$2,F7,$W$2),$Z$2),$X$2,IF(LEN(G7)&gt;0,CONCATENATE($W$2,G7,$W$2),$Z$2),$X$2,"@IDCITY")</f>
         <v>'International Trans Mar','745585',NULL,NULL,'la casona local 1234',NULL,'mi_correo@correo.com',@IDCITY</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f>CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'USA-Florida-Miami') insert into forwarders (FORWARDER_NAME, PHONE1, PHONE2, FAX, FORWARDER_ADDRESS, MAIL1, MAIL2, CITY_ID) values  ('International Trans Mar','745585',NULL,NULL,'la casona local 1234',NULL,'mi_correo@correo.com',@IDCITY)
 GO</v>
@@ -6276,7 +6376,7 @@
         <f>CONCATENATE($W$2,A6,$W$2)</f>
         <v>'Logo Pendiente'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into activity_types (ACTIVITY_TYPE_NAME) values  ('Logo Pendiente')</v>
       </c>
@@ -6289,7 +6389,7 @@
         <f>CONCATENATE($W$2,A7,$W$2)</f>
         <v>'Pedido Incompleto'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into activity_types (ACTIVITY_TYPE_NAME) values  ('Pedido Incompleto')</v>
       </c>
@@ -6517,7 +6617,7 @@
         <f>CONCATENATE("@IDFORWARDER",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,IF(LEN(D6)&gt;0,CONCATENATE($W$2,D6,$W$2),$Z$2),$X$2,IF(LEN(E6)&gt;0,CONCATENATE($W$2,E6,$W$2),$Z$2),$X$2,$W$2,F6,$W$2,$X$2,"@IDCITY",$X$2,$W$2,H6,$W$2,$X$2,IF(LEN(I6)&gt;0,CONCATENATE($W$2,I6,$W$2),$Z$2),$X$2,IF(LEN(J6)&gt;0,CONCATENATE($W$2,J6,$W$2),$Z$2))</f>
         <v>@IDFORWARDER,'Carmelita la nita','5454548787','21352124',NULL,'Calle 40 # 20 - 23',@IDCITY,'Camela Nita Lopez','carmela@fusa.com',NULL</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = 'trasportes fusa') DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Bogota') insert into forwarder_agents (FORWARDER_ID, FORWARDER_AGENT_NAME, PHONE1, PHONE2, FAX, FORWARDER_AGENT_ADDRESS, CITY_ID, CONTACT, EMAIL1, EMAIL2) values  (@IDFORWARDER,'Carmelita la nita','5454548787','21352124',NULL,'Calle 40 # 20 - 23',@IDCITY,'Camela Nita Lopez','carmela@fusa.com',NULL)
 GO</v>
@@ -6566,7 +6666,7 @@
         <f>CONCATENATE("@IDFORWARDER",$X$2,$W$2,B7,$W$2,$X$2,$W$2,C7,$W$2,$X$2,IF(LEN(D7)&gt;0,CONCATENATE($W$2,D7,$W$2),$Z$2),$X$2,IF(LEN(E7)&gt;0,CONCATENATE($W$2,E7,$W$2),$Z$2),$X$2,$W$2,F7,$W$2,$X$2,"@IDCITY",$X$2,$W$2,H7,$W$2,$X$2,IF(LEN(I7)&gt;0,CONCATENATE($W$2,I7,$W$2),$Z$2),$X$2,IF(LEN(J7)&gt;0,CONCATENATE($W$2,J7,$W$2),$Z$2))</f>
         <v>@IDFORWARDER,'Transmar Colombia','54252262','875412363',NULL,'Calle 28 # 12 - 35',@IDCITY,'Jose Lopez',NULL,'Lopez.jose@transmar.com'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f>CONCATENATE(N7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDFORWARDER INT = (SELECT FORWARDER_ID FROM forwarders WHERE FORWARDER_NAME = 'International Trans Mar') DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into forwarder_agents (FORWARDER_ID, FORWARDER_AGENT_NAME, PHONE1, PHONE2, FAX, FORWARDER_AGENT_ADDRESS, CITY_ID, CONTACT, EMAIL1, EMAIL2) values  (@IDFORWARDER,'Transmar Colombia','54252262','875412363',NULL,'Calle 28 # 12 - 35',@IDCITY,'Jose Lopez',NULL,'Lopez.jose@transmar.com')
 GO</v>
@@ -6696,7 +6796,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2)</f>
         <v>'Aereo','Transporte Aéreo'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Aereo','Transporte Aéreo')</v>
       </c>
@@ -6712,7 +6812,7 @@
         <f t="shared" ref="R7:R9" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2)</f>
         <v>'Maritimo','Transporte Marítimo'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T9" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Maritimo','Transporte Marítimo')</v>
       </c>
@@ -6728,7 +6828,7 @@
         <f t="shared" si="0"/>
         <v>'Combinado','Transporte Aéreo y Marítimo'</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Combinado','Transporte Aéreo y Marítimo')</v>
       </c>
@@ -6744,7 +6844,7 @@
         <f t="shared" si="0"/>
         <v>'Directo','Entrega local'</v>
       </c>
-      <c r="T9" s="67" t="str">
+      <c r="T9" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into shipment_methods (SHIPMENT_METHOD_NAME, SHIPMENT_METHOD_NOTES) values  ('Directo','Entrega local')</v>
       </c>
@@ -6861,7 +6961,7 @@
         <f>CONCATENATE("@SHIPMENTMETHODID",$X$2,"@FORWARDERAGENTID")</f>
         <v>@SHIPMENTMETHODID,@FORWARDERAGENTID</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = 'Aereo') DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = 'trasportes fusa-Carmelita la nita') insert into shipment_forwarder_agent_methods (SHIPMENT_METHOD_ID, FORWARDER_AGENT_ID) values  (@SHIPMENTMETHODID,@FORWARDERAGENTID)
 GO</v>
@@ -6887,7 +6987,7 @@
         <f>CONCATENATE("@SHIPMENTMETHODID",$X$2,"@FORWARDERAGENTID")</f>
         <v>@SHIPMENTMETHODID,@FORWARDERAGENTID</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f>CONCATENATE(N7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @SHIPMENTMETHODID INT = (SELECT SHIPMENT_METHOD_ID FROM shipment_methods WHERE SHIPMENT_METHOD_NAME = 'Maritimo') DECLARE @FORWARDERAGENTID INT = (SELECT FORWARDER_AGENT_ID FROM forwarder_agents a JOIN forwarders b ON b.FORWARDER_ID = a.FORWARDER_ID WHERE b.FORWARDER_NAME +'-'+a.FORWARDER_AGENT_NAME = 'International Trans Mar-Transmar Colombia') insert into shipment_forwarder_agent_methods (SHIPMENT_METHOD_ID, FORWARDER_AGENT_ID) values  (@SHIPMENTMETHODID,@FORWARDERAGENTID)
 GO</v>
@@ -7053,7 +7153,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,"@ISDEMON",$X$2,"@ISACTIVE")</f>
         <v>'001','Importados',@ISDEMON,@ISACTIVE</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @ISDEMON BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) insert into lines (LINE_CODE, LINE_NAME, IS_DEMON, IS_ACTIVE) values  ('001','Importados',@ISDEMON,@ISACTIVE)
 GO</v>
@@ -7154,7 +7254,7 @@
         <f>CONCATENATE($W$2,A6,$W$2)</f>
         <v>'EURO'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into currencies (CURRENCY_NAME) values  ('EURO')</v>
       </c>
@@ -7167,7 +7267,7 @@
         <f t="shared" ref="R7:R8" si="0">CONCATENATE($W$2,A7,$W$2)</f>
         <v>'PESO'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into currencies (CURRENCY_NAME) values  ('PESO')</v>
       </c>
@@ -7180,7 +7280,7 @@
         <f t="shared" si="0"/>
         <v>'USD'</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into currencies (CURRENCY_NAME) values  ('USD')</v>
       </c>
@@ -7273,7 +7373,7 @@
         <f>CONCATENATE($W$2,A6,$W$2)</f>
         <v>'Caja'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Caja')</v>
       </c>
@@ -7286,7 +7386,7 @@
         <f t="shared" ref="R7:R8" si="0">CONCATENATE($W$2,A7,$W$2)</f>
         <v>'Centimetro Cúbico'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Centimetro Cúbico')</v>
       </c>
@@ -7299,7 +7399,7 @@
         <f t="shared" si="0"/>
         <v>'Gramo'</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Gramo')</v>
       </c>
@@ -7312,7 +7412,7 @@
         <f t="shared" ref="R9" si="2">CONCATENATE($W$2,A9,$W$2)</f>
         <v>'Pieza'</v>
       </c>
-      <c r="T9" s="67" t="str">
+      <c r="T9" s="59" t="str">
         <f t="shared" ref="T9" si="3">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R9,$Y$2)</f>
         <v>insert into measure_units (MEASURE_UNIT_NAME) values  ('Pieza')</v>
       </c>
@@ -7329,7 +7429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AA6" sqref="AA6"/>
     </sheetView>
@@ -7366,19 +7466,19 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="38"/>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
       <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -7680,7 +7780,7 @@
         <f>IF(A6&lt;&gt;"",IF(B6&lt;&gt;"",CONCATENATE(A6,"-",B6),""),"")</f>
         <v>001-MI001</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(AB6," ",AC6," ",AD6," ",AE6," ",AF6," ",AG6," ",AH6," ",AI6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,AA6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @LINEID INT = (SELECT LINE_ID FROM lines WHERE LINE_CODE = '001') DECLARE @CURRENCYID INT = (SELECT CURRENCY_ID FROM currencies WHERE CURRENCY_NAME = 'PESO') DECLARE @ISEXTERNAL BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END) DECLARE @FOBID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='Caja') DECLARE @CIIFID INT = (SELECT MEASURE_UNIT_ID FROM measure_units WHERE MEASURE_UNIT_NAME ='Centimetro Cúbico') DECLARE @ISPRODNAL BIT = (CASE WHEN 'No' = 'Si' THEN 1 ELSE 0 END) DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) DECLARE @ISVISIBLE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) insert into items (LINE_ID, INTERNAL_REFERENCE, ITEM_NAME, PROVIDER_REFERENCE, PROVIDER_ITEM_NAME, FOB_COST, CURRENCY_ID, NOTES, IS_EXTERNAL_INVENTORY, CIF_COST, VOLUME, WEIGHT, FOB_MEASURE_UNIT_ID, CIF_MEASURE_UNIT_ID, IS_DOMESTIC_PRODUCT, IS_ACTIVE, IS_CATALOG_VISIBLE) values  (@LINEID,'MI001','MI PRUEBA','0001 AZUL','MIPRUEBA PROV',0.1245857,@CURRENCYID,'PRUEBA',@ISEXTERNAL,1,1,1,@FOBID,@CIIFID,@ISPRODNAL,@ISACTIVE,@ISVISIBLE)
 GO</v>
@@ -7867,7 +7967,7 @@
         <f>CONCATENATE("@ITEM_ID",$X$2,"@AREA_ID")</f>
         <v>@ITEM_ID,@AREA_ID</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001')  DECLARE @AREA_ID SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = '001') insert into items_area (ITEM_ID, AREA_ID) values  (@ITEM_ID,@AREA_ID)
 GO</v>
@@ -7878,7 +7978,7 @@
       <c r="P7" s="53"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="53"/>
-      <c r="T7" s="67"/>
+      <c r="T7" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7910,9 +8010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:Z6"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7936,18 +8036,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
@@ -8160,21 +8260,21 @@
         <f>CONCATENATE("@ITEM_ID",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,$W$2,D6,$W$2,$X$2,$W$2,E6,$W$2,$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,G6+H6,$X$2,"@ISACTIVE",$X$2,J6)</f>
         <v>@ITEM_ID,'004','001AA','Amarillo','Amarillo',NULL,250,@ISACTIVE,100</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($AA$2," ",P6," ",Q6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),AB6," ",AD6," ",AF6,CHAR(10),"GO")</f>
         <v>DECLARE @LOCAL SMALLINT = (SELECT WAREHOUSE_ID FROM warehouses WHERE WAREHOUSE_CODE = 1) DECLARE @FRANCA SMALLINT = (SELECT WAREHOUSE_ID FROM warehouses WHERE WAREHOUSE_CODE = 2) DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001') DECLARE @ISACTIVE BIT = (CASE WHEN 'Si' = 'Si' THEN 1 ELSE 0 END) insert into item_references (ITEM_ID, REFERENCE_CODE, PROVIDER_REFERENCE_CODE, REFERENCE_NAME, PROVIDER_REFERENCE_NAME, NOTES, INVENTORY_QUANTITY, IS_ACTIVE, ALARM_MINIMUM_QUANTITY) values  (@ITEM_ID,'004','001AA','Amarillo','Amarillo',NULL,250,@ISACTIVE,100)
 DECLARE @REFERENCE_ID INT = (SELECT REFERENCE_ID FROM item_references WHERE ITEM_ID = @ITEM_ID AND REFERENCE_CODE = '004') UPDATE references_warehouse set QUANTITY = 200 WHERE WAREHOUSE_ID = @LOCAL AND REFERENCE_ID = @REFERENCE_ID UPDATE references_warehouse set QUANTITY = 50 WHERE WAREHOUSE_ID = @FRANCA AND REFERENCE_ID = @REFERENCE_ID
 GO</v>
       </c>
-      <c r="AB6" s="66" t="str">
+      <c r="AB6" s="58" t="str">
         <f>CONCATENATE("DECLARE @REFERENCE_ID INT = (SELECT REFERENCE_ID FROM item_references WHERE ITEM_ID = @ITEM_ID AND REFERENCE_CODE = '",B6,"')")</f>
         <v>DECLARE @REFERENCE_ID INT = (SELECT REFERENCE_ID FROM item_references WHERE ITEM_ID = @ITEM_ID AND REFERENCE_CODE = '004')</v>
       </c>
-      <c r="AD6" s="66" t="str">
+      <c r="AD6" s="58" t="str">
         <f>CONCATENATE("UPDATE references_warehouse set QUANTITY = ",G6," WHERE WAREHOUSE_ID = @LOCAL AND REFERENCE_ID = @REFERENCE_ID")</f>
         <v>UPDATE references_warehouse set QUANTITY = 200 WHERE WAREHOUSE_ID = @LOCAL AND REFERENCE_ID = @REFERENCE_ID</v>
       </c>
-      <c r="AF6" s="66" t="str">
+      <c r="AF6" s="58" t="str">
         <f>CONCATENATE("UPDATE references_warehouse set QUANTITY = ",H6," WHERE WAREHOUSE_ID = @FRANCA AND REFERENCE_ID = @REFERENCE_ID")</f>
         <v>UPDATE references_warehouse set QUANTITY = 50 WHERE WAREHOUSE_ID = @FRANCA AND REFERENCE_ID = @REFERENCE_ID</v>
       </c>
@@ -8416,7 +8516,7 @@
         <f>CONCATENATE("@IDIDENTTYPE",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2,$X$2,$W$2,D6,$W$2,$X$2,IF(LEN(E6)&gt;0,CONCATENATE($W$2,E6,$W$2),$Z$2),$X$2,IF(LEN(F6)&gt;0,CONCATENATE($W$2,F6,$W$2),$Z$2),$X$2,IF(LEN(G6)&gt;0,CONCATENATE($W$2,G6,$W$2),$Z$2),$X$2,IF(LEN(H6)&gt;0,CONCATENATE($W$2,H6,$W$2),$Z$2),$X$2,IF(LEN(I6)&gt;0,CONCATENATE($W$2,I6,$W$2),$Z$2),$X$2,"@IDCITY")</f>
         <v>@IDIDENTTYPE,'41401793','CARDASOC','Cardenas Asociados','calle 1 a No. 20 -34','300 4525212',NULL,'info@cardasociados.com.co','Francelina Cardenas',@IDCITY</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",Q6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDIDENTTYPE INT = (SELECT IDENTITY_TYPE_ID FROM identity_types WHERE IDENTITY_TYPE_CODE =  'NIT') DECLARE @IDCITY INT = (SELECT CITY_ID FROM cities a JOIN departments b ON b.DEPARTMENT_ID = a.DEPARTMENT_ID JOIN countries c ON c.COUNTRY_ID = B.COUNTRY_ID WHERE c.COUNTRY_CODE +'-'+B.DEPARTMENT_NAME+'-'+a.CITY_NAME = 'CO-Cundinamarca-Chia') insert into providers (IDENTITY_TYPE_ID, IDENTITY_NUMBER, PROVIDER_CODE, PROVIDER_NAME, PROVIDER_ADDRESS, PHONE, FAX, EMAIL, CONTACT_PERSON, CITY_ID) values  (@IDIDENTTYPE,'41401793','CARDASOC','Cardenas Asociados','calle 1 a No. 20 -34','300 4525212',NULL,'info@cardasociados.com.co','Francelina Cardenas',@IDCITY)
 GO</v>
@@ -8560,7 +8660,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,$W$2,B6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
         <v>'001','Despachos',NULL</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into areas (AREA_CODE,AREA_NAME,DESCRIPTION) values  ('001','Despachos',NULL)</v>
       </c>
@@ -8579,7 +8679,7 @@
         <f>CONCATENATE($W$2,A7,$W$2,$X$2,$W$2,B7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
         <v>'005','Marca Nacional','Servicio al cliente nacional'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into areas (AREA_CODE,AREA_NAME,DESCRIPTION) values  ('005','Marca Nacional','Servicio al cliente nacional')</v>
       </c>
@@ -8596,7 +8696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
@@ -8696,7 +8796,7 @@
         <f>CONCATENATE("@REFERENCEID",$X$2,"@PROVIDERID")</f>
         <v>@REFERENCEID,@PROVIDERID</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(N6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @PROVIDERID INT = (SELECT PROVIDER_ID FROM providers WHERE PROVIDER_CODE = 'CARDASOC') DECLARE @REFERENCEID INT = (SELECT REFERENCE_ID FROM item_references a JOIN items b ON b.ITEM_ID = a.ITEM_ID JOIN lines c ON c.LINE_ID = b.LINE_ID WHERE c.LINE_CODE+'-'+b.INTERNAL_REFERENCE +'-'+a.REFERENCE_CODE = '001-MI001-004') insert into provider_references (REFERENCE_ID, PROVIDER_ID) values  (@REFERENCEID,@PROVIDERID)
 GO</v>
@@ -8707,7 +8807,7 @@
       <c r="P7" s="53"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="53"/>
-      <c r="T7" s="67"/>
+      <c r="T7" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8741,7 +8841,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6:T9"/>
+      <selection pane="bottomLeft" sqref="A1:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8825,7 +8925,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(LEN(B6)&gt;0,CONCATENATE($W$2,B6,$W$2),$Z$2))</f>
         <v>'Coordinadora',NULL</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Coordinadora',NULL)</v>
       </c>
@@ -8838,7 +8938,7 @@
         <f t="shared" ref="R7:R9" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,IF(LEN(B7)&gt;0,CONCATENATE($W$2,B7,$W$2),$Z$2))</f>
         <v>'Servientrega',NULL</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T9" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Servientrega',NULL)</v>
       </c>
@@ -8851,7 +8951,7 @@
         <f t="shared" si="0"/>
         <v>'Redetrans',NULL</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Redetrans',NULL)</v>
       </c>
@@ -8864,7 +8964,7 @@
         <f t="shared" si="0"/>
         <v>'Directo',NULL</v>
       </c>
-      <c r="T9" s="67" t="str">
+      <c r="T9" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into shipping_methods (SHIPPING_METHOD_NAME, SHIPPING_METHOD_NOTES) values  ('Directo',NULL)</v>
       </c>
@@ -8874,6 +8974,180 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="13" style="23" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="15"/>
+    <col min="5" max="6" width="11.42578125" style="15" customWidth="1"/>
+    <col min="7" max="14" width="11.42578125" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="T2" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y2" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z2" s="53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="T3" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="71">
+        <v>1.1245000000000001</v>
+      </c>
+      <c r="C6" s="71">
+        <v>1</v>
+      </c>
+      <c r="D6" s="71">
+        <v>1</v>
+      </c>
+      <c r="E6" s="71">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49">
+        <v>100</v>
+      </c>
+      <c r="P6" s="53" t="str">
+        <f>CONCATENATE("DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '",A6,"')")</f>
+        <v>DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001')</v>
+      </c>
+      <c r="R6" s="53" t="str">
+        <f>CONCATENATE("@ITEM_ID",$X$2,IF(LEN(B6)&gt;0,B6,$Z$2),$X$2,IF(LEN(C6)&gt;0,C6,$Z$2),$X$2,IF(LEN(D6)&gt;0,D6,$Z$2),$X$2,IF(LEN(E6)&gt;0,E6,$Z$2),$X$2,IF(LEN(F6)&gt;0,F6,$Z$2))</f>
+        <v>@ITEM_ID,1.1245,1,1,1,100</v>
+      </c>
+      <c r="T6" s="59" t="str">
+        <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
+        <v>DECLARE @ITEM_ID INT = (SELECT ITEM_ID FROM items a join lines b on b.LINE_ID = a.LINE_ID WHERE b.LINE_CODE +'-'+a.INTERNAL_REFERENCE = '001-MI001') insert into packaging (ITEM_ID, WEIGHT, HEIGHT, WIDTH, LENGTH, QUANTITY) values  (@ITEM_ID,1.1245,1,1,1,100)
+GO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R7" s="53"/>
+      <c r="T7" s="59"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R8" s="53"/>
+      <c r="T8" s="59"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R9" s="53"/>
+      <c r="T9" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Articulos!$R$6:$R$100000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8983,7 +9257,7 @@
         <f>CONCATENATE("@IDACTIVITY",",","@IDAREA")</f>
         <v>@IDACTIVITY,@IDAREA</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(O6," ",P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = 'Logo Pendiente')  DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = 'Despachos') insert into activity_types_area (ACTIVITY_TYPE_ID, AREA_ID) values  (@IDACTIVITY,@IDAREA)
 GO</v>
@@ -9008,7 +9282,7 @@
         <f>CONCATENATE("@IDACTIVITY",",","@IDAREA")</f>
         <v>@IDACTIVITY,@IDAREA</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f>CONCATENATE(O7," ",P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDACTIVITY SMALLINT = (SELECT ACTIVITY_TYPE_ID FROM activity_types WHERE ACTIVITY_TYPE_NAME = 'Pedido Incompleto')  DECLARE @IDAREA SMALLINT = (SELECT AREA_ID FROM areas WHERE AREA_NAME = 'Marca Nacional') insert into activity_types_area (ACTIVITY_TYPE_ID, AREA_ID) values  (@IDACTIVITY,@IDAREA)
 GO</v>
@@ -9131,7 +9405,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
         <v>'Dif. Ent. Nacionalización',NULL</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Dif. Ent. Nacionalización',NULL)</v>
       </c>
@@ -9144,7 +9418,7 @@
         <f t="shared" ref="R7:R9" si="0">CONCATENATE($W$2,A7,$W$2,$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
         <v>'Devolución',NULL</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T9" si="1">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Devolución',NULL)</v>
       </c>
@@ -9157,7 +9431,7 @@
         <f t="shared" si="0"/>
         <v>'Producto Defectuoso',NULL</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Producto Defectuoso',NULL)</v>
       </c>
@@ -9170,7 +9444,7 @@
         <f t="shared" si="0"/>
         <v>'Por Ensamble',NULL</v>
       </c>
-      <c r="T9" s="67" t="str">
+      <c r="T9" s="59" t="str">
         <f t="shared" si="1"/>
         <v>insert into adjustment_reasons (ADJUSTMENT_REASON_NAME, ADJUSTMENT_REASON_NOTES) values  ('Por Ensamble',NULL)</v>
       </c>
@@ -9279,7 +9553,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,IF(B6="Agrega",1,-1))</f>
         <v>'iingresar',1</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2)</f>
         <v>insert into adjustment_types (ADJUSTMENT_TYPE_NAME, OPERATOR) values  ('iingresar',1)</v>
       </c>
@@ -9298,7 +9572,7 @@
         <f>CONCATENATE($W$2,A7,$W$2,$X$2,IF(B7="Agrega",1,-1))</f>
         <v>'retirar',-1</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7" si="0">CONCATENATE($T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2)</f>
         <v>insert into adjustment_types (ADJUSTMENT_TYPE_NAME, OPERATOR) values  ('retirar',-1)</v>
       </c>
@@ -9308,11 +9582,11 @@
         <v>37</v>
       </c>
       <c r="R8" s="53"/>
-      <c r="T8" s="67"/>
+      <c r="T8" s="59"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R9" s="53"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="59"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -9447,7 +9721,7 @@
         <f>CONCATENATE("@IDDOCUMENT",$X$2,$W$2,B6,$W$2,$X$2,$W$2,C6,$W$2)</f>
         <v>@IDDOCUMENT,'Alarmas de Ordenes','Alarmas para Ordenes de Compra'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden') insert into alarm_types (DOCUMENT_TYPE_ID, NAME, DESCRIPTION) values  (@IDDOCUMENT,'Alarmas de Ordenes','Alarmas para Ordenes de Compra')
 GO</v>
@@ -9474,7 +9748,7 @@
         <f t="shared" ref="R7:R8" si="1">CONCATENATE("@IDDOCUMENT",$X$2,$W$2,B7,$W$2,$X$2,$W$2,C7,$W$2)</f>
         <v>@IDDOCUMENT,'Alarmas de Pedidos','Alarmas para Pedidos'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido') insert into alarm_types (DOCUMENT_TYPE_ID, NAME, DESCRIPTION) values  (@IDDOCUMENT,'Alarmas de Pedidos','Alarmas para Pedidos')
 GO</v>
@@ -9501,7 +9775,7 @@
         <f t="shared" si="1"/>
         <v>@IDDOCUMENT,'Alarmas de Reservas','Alarmas para Reservas'</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="2"/>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva') insert into alarm_types (DOCUMENT_TYPE_ID, NAME, DESCRIPTION) values  (@IDDOCUMENT,'Alarmas de Reservas','Alarmas para Reservas')
 GO</v>
@@ -9510,7 +9784,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P9" s="53"/>
       <c r="R9" s="53"/>
-      <c r="T9" s="67"/>
+      <c r="T9" s="59"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -9625,7 +9899,7 @@
         <f>CONCATENATE("@IDALARMTYPE",$X$2,$W$2,B6,$W$2)</f>
         <v>@IDALARMTYPE,'Revisar estado de importacion'</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = 'Alarmas de Ordenes') insert into alarm_messages (ALARM_TYPE_ID, ALARM_MESSAGE) values  (@IDALARMTYPE,'Revisar estado de importacion')
 GO</v>
@@ -9646,7 +9920,7 @@
         <f t="shared" ref="R7" si="1">CONCATENATE("@IDALARMTYPE",$X$2,$W$2,B7,$W$2)</f>
         <v>@IDALARMTYPE,'Confirmar Marcacion de Articulos'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDALARMTYPE SMALLINT = (SELECT ALARM_TYPE_ID FROM alarm_types WHERE NAME = 'Alarmas de Pedidos') insert into alarm_messages (ALARM_TYPE_ID, ALARM_MESSAGE) values  (@IDALARMTYPE,'Confirmar Marcacion de Articulos')
 GO</v>
@@ -9655,7 +9929,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="P8" s="53"/>
       <c r="R8" s="53"/>
-      <c r="T8" s="67"/>
+      <c r="T8" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9787,7 +10061,7 @@
         <f>CONCATENATE($W$2,A6,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C6)&gt;0,CONCATENATE($W$2,C6,$W$2),$Z$2))</f>
         <v>'solicitud del cliente',@IDDOCUMENT,NULL</v>
       </c>
-      <c r="T6" s="67" t="str">
+      <c r="T6" s="59" t="str">
         <f>CONCATENATE(P6," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R6,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Pedido') insert into cancellation_reasons (CANCELLATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('solicitud del cliente',@IDDOCUMENT,NULL)
 GO</v>
@@ -9814,7 +10088,7 @@
         <f t="shared" ref="R7:R8" si="1">CONCATENATE($W$2,A7,$W$2,$X$2,"@IDDOCUMENT",$X$2,IF(LEN(C7)&gt;0,CONCATENATE($W$2,C7,$W$2),$Z$2))</f>
         <v>'Inventario Insuficiente',@IDDOCUMENT,'Proveedor no cuenta con los Articulos solicitados'</v>
       </c>
-      <c r="T7" s="67" t="str">
+      <c r="T7" s="59" t="str">
         <f t="shared" ref="T7:T8" si="2">CONCATENATE(P7," ",$T$2,$T$3,$V$2,$V$3,$Y$2,$U$2,$V$2,R7,$Y$2,CHAR(10),"GO")</f>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Orden') insert into cancellation_reasons (CANCELLATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Inventario Insuficiente',@IDDOCUMENT,'Proveedor no cuenta con los Articulos solicitados')
 GO</v>
@@ -9838,7 +10112,7 @@
         <f t="shared" si="1"/>
         <v>'Cancelado por el cliente',@IDDOCUMENT,NULL</v>
       </c>
-      <c r="T8" s="67" t="str">
+      <c r="T8" s="59" t="str">
         <f t="shared" si="2"/>
         <v>DECLARE @IDDOCUMENT SMALLINT = (SELECT DOCUMENT_TYPE_ID FROM document_types WHERE DOCUMENT_TYPE_NAME = 'Reserva') insert into cancellation_reasons (CANCELLATION_REASON_NAME, DOCUMENT_TYPE_ID, NOTES) values  ('Cancelado por el cliente',@IDDOCUMENT,NULL)
 GO</v>
